--- a/Code/Results/Cases/Case_1_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.674904866254508</v>
+        <v>3.674904866254792</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06889770624891156</v>
+        <v>0.06889770624903591</v>
       </c>
       <c r="E2">
-        <v>3.090493752168669</v>
+        <v>3.090493752168697</v>
       </c>
       <c r="F2">
-        <v>2.877397374785033</v>
+        <v>2.877397374785062</v>
       </c>
       <c r="G2">
-        <v>2.355021675166185</v>
+        <v>2.355021675166199</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.32774573059183</v>
+        <v>11.32774573059197</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.140117095298535</v>
+        <v>3.140117095298706</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04914553816461265</v>
+        <v>0.04914553816461975</v>
       </c>
       <c r="E3">
-        <v>2.644883004042669</v>
+        <v>2.64488300404264</v>
       </c>
       <c r="F3">
-        <v>2.327350009420101</v>
+        <v>2.327350009420087</v>
       </c>
       <c r="G3">
-        <v>1.892401618207273</v>
+        <v>1.892401618207245</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.640487321950616</v>
+        <v>9.640487321950502</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.823654640817779</v>
+        <v>2.823654640818177</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03906739264400372</v>
+        <v>0.03906739264389358</v>
       </c>
       <c r="E4">
-        <v>2.381232751040315</v>
+        <v>2.381232751040343</v>
       </c>
       <c r="F4">
-        <v>2.024444915342258</v>
+        <v>2.024444915342286</v>
       </c>
       <c r="G4">
-        <v>1.639135265431307</v>
+        <v>1.639135265431335</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.648258823736739</v>
+        <v>8.648258823736654</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.697013118682833</v>
+        <v>2.697013118682264</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03536267932693704</v>
+        <v>0.03536267932703652</v>
       </c>
       <c r="E5">
-        <v>2.275708099530107</v>
+        <v>2.275708099530064</v>
       </c>
       <c r="F5">
-        <v>1.907941190806369</v>
+        <v>1.907941190806397</v>
       </c>
       <c r="G5">
-        <v>1.542049442098985</v>
+        <v>1.542049442099014</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.252330197418729</v>
+        <v>8.252330197418615</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.676107700455873</v>
+        <v>2.676107700456498</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03476904705028261</v>
+        <v>0.03476904705057038</v>
       </c>
       <c r="E6">
-        <v>2.258286910819152</v>
+        <v>2.258286910819137</v>
       </c>
       <c r="F6">
         <v>1.888969584955262</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.187030681906691</v>
+        <v>8.187030681906748</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.821938093862286</v>
+        <v>2.821938093862514</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03901592915265795</v>
+        <v>0.03901592915278584</v>
       </c>
       <c r="E7">
-        <v>2.379802529601704</v>
+        <v>2.379802529601719</v>
       </c>
       <c r="F7">
-        <v>2.022847719369977</v>
+        <v>2.022847719369963</v>
       </c>
       <c r="G7">
-        <v>1.63780299004857</v>
+        <v>1.637802990048542</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.642888093616619</v>
+        <v>8.642888093616762</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.487580166661303</v>
+        <v>3.487580166661246</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06158291857911635</v>
+        <v>0.06158291857910925</v>
       </c>
       <c r="E8">
-        <v>2.934375499696131</v>
+        <v>2.934375499696102</v>
       </c>
       <c r="F8">
-        <v>2.679252557871024</v>
+        <v>2.679252557871052</v>
       </c>
       <c r="G8">
         <v>2.188002258048542</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.73511267269444</v>
+        <v>10.73511267269441</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.930337301248471</v>
+        <v>4.930337301248812</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1297217233513663</v>
+        <v>0.1297217233515084</v>
       </c>
       <c r="E9">
-        <v>4.139159439788443</v>
+        <v>4.139159439788585</v>
       </c>
       <c r="F9">
-        <v>4.362914632560887</v>
+        <v>4.362914632560944</v>
       </c>
       <c r="G9">
-        <v>3.61797450028719</v>
+        <v>3.617974500287289</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.3543056111854</v>
+        <v>15.35430561118568</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.17326304825832</v>
+        <v>6.173263048259798</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2132059600822132</v>
+        <v>0.213205960081936</v>
       </c>
       <c r="E10">
-        <v>5.185628857869546</v>
+        <v>5.185628857869489</v>
       </c>
       <c r="F10">
-        <v>6.130496045473279</v>
+        <v>6.130496045473308</v>
       </c>
       <c r="G10">
-        <v>5.140070088538295</v>
+        <v>5.140070088538337</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.46357156367293</v>
+        <v>19.46357156367276</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.826918443384727</v>
+        <v>6.8269184433845</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2684901635729631</v>
+        <v>0.2684901635731194</v>
       </c>
       <c r="E11">
-        <v>5.741479915771407</v>
+        <v>5.741479915771322</v>
       </c>
       <c r="F11">
-        <v>7.198818250180551</v>
+        <v>7.19881825018058</v>
       </c>
       <c r="G11">
-        <v>6.068103141606855</v>
+        <v>6.068103141606883</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.69073296554905</v>
+        <v>21.69073296554882</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.096600996949121</v>
+        <v>7.096600996949007</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,13 +801,13 @@
         <v>0.294003576408663</v>
       </c>
       <c r="E12">
-        <v>5.972283956755206</v>
+        <v>5.972283956755291</v>
       </c>
       <c r="F12">
-        <v>7.67164148395068</v>
+        <v>7.671641483950765</v>
       </c>
       <c r="G12">
-        <v>6.48054332641253</v>
+        <v>6.480543326412572</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.62599736136951</v>
+        <v>22.62599736136985</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.03726614590596</v>
+        <v>7.037266145905903</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2882440200582153</v>
+        <v>0.2882440200582082</v>
       </c>
       <c r="E13">
-        <v>5.92142082679743</v>
+        <v>5.921420826797487</v>
       </c>
       <c r="F13">
         <v>7.565898399090258</v>
       </c>
       <c r="G13">
-        <v>6.388217646736678</v>
+        <v>6.388217646736663</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.41932558809305</v>
+        <v>22.41932558809299</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.848570272186635</v>
+        <v>6.848570272186578</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2704767316643171</v>
+        <v>0.27047673166431</v>
       </c>
       <c r="E14">
         <v>5.759975777125419</v>
@@ -883,7 +883,7 @@
         <v>7.236052997846798</v>
       </c>
       <c r="G14">
-        <v>6.100546111786628</v>
+        <v>6.100546111786656</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.7654434508479</v>
+        <v>21.76544345084807</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.736320436809592</v>
+        <v>6.736320436810161</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2602910310104249</v>
+        <v>0.260291031010766</v>
       </c>
       <c r="E15">
-        <v>5.664149969864098</v>
+        <v>5.664149969864013</v>
       </c>
       <c r="F15">
         <v>7.044354293466426</v>
       </c>
       <c r="G15">
-        <v>5.933585486223564</v>
+        <v>5.93358548622362</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.37881100192283</v>
+        <v>21.37881100192254</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.132942777621224</v>
+        <v>6.13294277762094</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2100758979838488</v>
+        <v>0.2100758979840407</v>
       </c>
       <c r="E16">
-        <v>5.151487455002922</v>
+        <v>5.151487455002865</v>
       </c>
       <c r="F16">
-        <v>6.06796050437589</v>
+        <v>6.067960504375918</v>
       </c>
       <c r="G16">
-        <v>5.085921679201917</v>
+        <v>5.085921679201959</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.32785958883699</v>
+        <v>19.32785958883682</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.789837840763994</v>
+        <v>5.789837840763255</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1846543641481233</v>
+        <v>0.1846543641482299</v>
       </c>
       <c r="E17">
-        <v>4.861556109185386</v>
+        <v>4.861556109185273</v>
       </c>
       <c r="F17">
-        <v>5.550593824189605</v>
+        <v>5.550593824189548</v>
       </c>
       <c r="G17">
-        <v>4.63873534346375</v>
+        <v>4.638735343463694</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.18009517101723</v>
+        <v>18.180095171017</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.600002502963662</v>
+        <v>5.600002502964287</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1714842625331912</v>
+        <v>0.1714842625333119</v>
       </c>
       <c r="E18">
-        <v>4.701562232994547</v>
+        <v>4.701562232994632</v>
       </c>
       <c r="F18">
-        <v>5.275329007456889</v>
+        <v>5.275329007456833</v>
       </c>
       <c r="G18">
-        <v>4.401408063920712</v>
+        <v>4.401408063920684</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.55020064826459</v>
+        <v>17.55020064826448</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.536846687249522</v>
+        <v>5.536846687250829</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1672383032526312</v>
+        <v>0.1672383032527449</v>
       </c>
       <c r="E19">
         <v>4.648395105702889</v>
       </c>
       <c r="F19">
-        <v>5.185429541700387</v>
+        <v>5.18542954170033</v>
       </c>
       <c r="G19">
-        <v>4.323992437712874</v>
+        <v>4.323992437712818</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.34141014678664</v>
+        <v>17.34141014678659</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.825541297908046</v>
+        <v>5.82554129790708</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1872010393009802</v>
+        <v>0.1872010393009589</v>
       </c>
       <c r="E20">
-        <v>4.891679125157935</v>
+        <v>4.89167912515785</v>
       </c>
       <c r="F20">
-        <v>5.603223536062785</v>
+        <v>5.603223536062757</v>
       </c>
       <c r="G20">
-        <v>4.684159822233141</v>
+        <v>4.684159822233127</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.903266787531663</v>
+        <v>6.903266787531606</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2755423876506171</v>
+        <v>0.2755423876508303</v>
       </c>
       <c r="E21">
-        <v>5.806725952628511</v>
+        <v>5.806725952628483</v>
       </c>
       <c r="F21">
-        <v>7.330671246214962</v>
+        <v>7.330671246215047</v>
       </c>
       <c r="G21">
-        <v>6.18301630720633</v>
+        <v>6.183016307206387</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.95446424467883</v>
+        <v>21.95446424467872</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.752784919767066</v>
+        <v>7.752784919766384</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3637188782400784</v>
+        <v>0.3637188782401637</v>
       </c>
       <c r="E22">
-        <v>6.538254691814672</v>
+        <v>6.538254691814501</v>
       </c>
       <c r="F22">
-        <v>8.910785422695113</v>
+        <v>8.910785422694943</v>
       </c>
       <c r="G22">
-        <v>7.566008505135045</v>
+        <v>7.566008505134903</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.94896527763314</v>
+        <v>24.94896527763268</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.279115952086499</v>
+        <v>7.279115952087011</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3122594661085074</v>
+        <v>0.3122594661085998</v>
       </c>
       <c r="E23">
-        <v>6.129047439541552</v>
+        <v>6.129047439541608</v>
       </c>
       <c r="F23">
-        <v>8.003196550019567</v>
+        <v>8.003196550019538</v>
       </c>
       <c r="G23">
-        <v>6.770345017982294</v>
+        <v>6.770345017982265</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.26505422741639</v>
+        <v>23.26505422741656</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.809377197498861</v>
+        <v>5.809377197498293</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1860453038835885</v>
+        <v>0.1860453038836951</v>
       </c>
       <c r="E24">
-        <v>4.878040174014529</v>
+        <v>4.878040174014501</v>
       </c>
       <c r="F24">
-        <v>5.579362286852273</v>
+        <v>5.579362286852302</v>
       </c>
       <c r="G24">
-        <v>4.663563386107697</v>
+        <v>4.663563386107711</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.24513059576299</v>
+        <v>18.24513059576293</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.517815164703109</v>
+        <v>4.517815164702824</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1073652415638904</v>
+        <v>0.1073652415639827</v>
       </c>
       <c r="E25">
-        <v>3.793950957664208</v>
+        <v>3.793950957664151</v>
       </c>
       <c r="F25">
-        <v>3.843705565347904</v>
+        <v>3.843705565347847</v>
       </c>
       <c r="G25">
-        <v>3.174604045228833</v>
+        <v>3.174604045228818</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.01957810838061</v>
+        <v>14.01957810838039</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.674904866254792</v>
+        <v>3.674904866254508</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06889770624903591</v>
+        <v>0.06889770624891156</v>
       </c>
       <c r="E2">
-        <v>3.090493752168697</v>
+        <v>3.090493752168669</v>
       </c>
       <c r="F2">
-        <v>2.877397374785062</v>
+        <v>2.877397374785033</v>
       </c>
       <c r="G2">
-        <v>2.355021675166199</v>
+        <v>2.355021675166185</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.32774573059197</v>
+        <v>11.32774573059183</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.140117095298706</v>
+        <v>3.140117095298535</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04914553816461975</v>
+        <v>0.04914553816461265</v>
       </c>
       <c r="E3">
-        <v>2.64488300404264</v>
+        <v>2.644883004042669</v>
       </c>
       <c r="F3">
-        <v>2.327350009420087</v>
+        <v>2.327350009420101</v>
       </c>
       <c r="G3">
-        <v>1.892401618207245</v>
+        <v>1.892401618207273</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.640487321950502</v>
+        <v>9.640487321950616</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.823654640818177</v>
+        <v>2.823654640817779</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03906739264389358</v>
+        <v>0.03906739264400372</v>
       </c>
       <c r="E4">
-        <v>2.381232751040343</v>
+        <v>2.381232751040315</v>
       </c>
       <c r="F4">
-        <v>2.024444915342286</v>
+        <v>2.024444915342258</v>
       </c>
       <c r="G4">
-        <v>1.639135265431335</v>
+        <v>1.639135265431307</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.648258823736654</v>
+        <v>8.648258823736739</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.697013118682264</v>
+        <v>2.697013118682833</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03536267932703652</v>
+        <v>0.03536267932693704</v>
       </c>
       <c r="E5">
-        <v>2.275708099530064</v>
+        <v>2.275708099530107</v>
       </c>
       <c r="F5">
-        <v>1.907941190806397</v>
+        <v>1.907941190806369</v>
       </c>
       <c r="G5">
-        <v>1.542049442099014</v>
+        <v>1.542049442098985</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.252330197418615</v>
+        <v>8.252330197418729</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.676107700456498</v>
+        <v>2.676107700455873</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03476904705057038</v>
+        <v>0.03476904705028261</v>
       </c>
       <c r="E6">
-        <v>2.258286910819137</v>
+        <v>2.258286910819152</v>
       </c>
       <c r="F6">
         <v>1.888969584955262</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.187030681906748</v>
+        <v>8.187030681906691</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.821938093862514</v>
+        <v>2.821938093862286</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03901592915278584</v>
+        <v>0.03901592915265795</v>
       </c>
       <c r="E7">
-        <v>2.379802529601719</v>
+        <v>2.379802529601704</v>
       </c>
       <c r="F7">
-        <v>2.022847719369963</v>
+        <v>2.022847719369977</v>
       </c>
       <c r="G7">
-        <v>1.637802990048542</v>
+        <v>1.63780299004857</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.642888093616762</v>
+        <v>8.642888093616619</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.487580166661246</v>
+        <v>3.487580166661303</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06158291857910925</v>
+        <v>0.06158291857911635</v>
       </c>
       <c r="E8">
-        <v>2.934375499696102</v>
+        <v>2.934375499696131</v>
       </c>
       <c r="F8">
-        <v>2.679252557871052</v>
+        <v>2.679252557871024</v>
       </c>
       <c r="G8">
         <v>2.188002258048542</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.73511267269441</v>
+        <v>10.73511267269444</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.930337301248812</v>
+        <v>4.930337301248471</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1297217233515084</v>
+        <v>0.1297217233513663</v>
       </c>
       <c r="E9">
-        <v>4.139159439788585</v>
+        <v>4.139159439788443</v>
       </c>
       <c r="F9">
-        <v>4.362914632560944</v>
+        <v>4.362914632560887</v>
       </c>
       <c r="G9">
-        <v>3.617974500287289</v>
+        <v>3.61797450028719</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.35430561118568</v>
+        <v>15.3543056111854</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.173263048259798</v>
+        <v>6.17326304825832</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.213205960081936</v>
+        <v>0.2132059600822132</v>
       </c>
       <c r="E10">
-        <v>5.185628857869489</v>
+        <v>5.185628857869546</v>
       </c>
       <c r="F10">
-        <v>6.130496045473308</v>
+        <v>6.130496045473279</v>
       </c>
       <c r="G10">
-        <v>5.140070088538337</v>
+        <v>5.140070088538295</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.46357156367276</v>
+        <v>19.46357156367293</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.8269184433845</v>
+        <v>6.826918443384727</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2684901635731194</v>
+        <v>0.2684901635729631</v>
       </c>
       <c r="E11">
-        <v>5.741479915771322</v>
+        <v>5.741479915771407</v>
       </c>
       <c r="F11">
-        <v>7.19881825018058</v>
+        <v>7.198818250180551</v>
       </c>
       <c r="G11">
-        <v>6.068103141606883</v>
+        <v>6.068103141606855</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.69073296554882</v>
+        <v>21.69073296554905</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.096600996949007</v>
+        <v>7.096600996949121</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,13 +801,13 @@
         <v>0.294003576408663</v>
       </c>
       <c r="E12">
-        <v>5.972283956755291</v>
+        <v>5.972283956755206</v>
       </c>
       <c r="F12">
-        <v>7.671641483950765</v>
+        <v>7.67164148395068</v>
       </c>
       <c r="G12">
-        <v>6.480543326412572</v>
+        <v>6.48054332641253</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.62599736136985</v>
+        <v>22.62599736136951</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.037266145905903</v>
+        <v>7.03726614590596</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2882440200582082</v>
+        <v>0.2882440200582153</v>
       </c>
       <c r="E13">
-        <v>5.921420826797487</v>
+        <v>5.92142082679743</v>
       </c>
       <c r="F13">
         <v>7.565898399090258</v>
       </c>
       <c r="G13">
-        <v>6.388217646736663</v>
+        <v>6.388217646736678</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.41932558809299</v>
+        <v>22.41932558809305</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.848570272186578</v>
+        <v>6.848570272186635</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.27047673166431</v>
+        <v>0.2704767316643171</v>
       </c>
       <c r="E14">
         <v>5.759975777125419</v>
@@ -883,7 +883,7 @@
         <v>7.236052997846798</v>
       </c>
       <c r="G14">
-        <v>6.100546111786656</v>
+        <v>6.100546111786628</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.76544345084807</v>
+        <v>21.7654434508479</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.736320436810161</v>
+        <v>6.736320436809592</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.260291031010766</v>
+        <v>0.2602910310104249</v>
       </c>
       <c r="E15">
-        <v>5.664149969864013</v>
+        <v>5.664149969864098</v>
       </c>
       <c r="F15">
         <v>7.044354293466426</v>
       </c>
       <c r="G15">
-        <v>5.93358548622362</v>
+        <v>5.933585486223564</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.37881100192254</v>
+        <v>21.37881100192283</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.13294277762094</v>
+        <v>6.132942777621224</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2100758979840407</v>
+        <v>0.2100758979838488</v>
       </c>
       <c r="E16">
-        <v>5.151487455002865</v>
+        <v>5.151487455002922</v>
       </c>
       <c r="F16">
-        <v>6.067960504375918</v>
+        <v>6.06796050437589</v>
       </c>
       <c r="G16">
-        <v>5.085921679201959</v>
+        <v>5.085921679201917</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.32785958883682</v>
+        <v>19.32785958883699</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.789837840763255</v>
+        <v>5.789837840763994</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1846543641482299</v>
+        <v>0.1846543641481233</v>
       </c>
       <c r="E17">
-        <v>4.861556109185273</v>
+        <v>4.861556109185386</v>
       </c>
       <c r="F17">
-        <v>5.550593824189548</v>
+        <v>5.550593824189605</v>
       </c>
       <c r="G17">
-        <v>4.638735343463694</v>
+        <v>4.63873534346375</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.180095171017</v>
+        <v>18.18009517101723</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.600002502964287</v>
+        <v>5.600002502963662</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1714842625333119</v>
+        <v>0.1714842625331912</v>
       </c>
       <c r="E18">
-        <v>4.701562232994632</v>
+        <v>4.701562232994547</v>
       </c>
       <c r="F18">
-        <v>5.275329007456833</v>
+        <v>5.275329007456889</v>
       </c>
       <c r="G18">
-        <v>4.401408063920684</v>
+        <v>4.401408063920712</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.55020064826448</v>
+        <v>17.55020064826459</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.536846687250829</v>
+        <v>5.536846687249522</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1672383032527449</v>
+        <v>0.1672383032526312</v>
       </c>
       <c r="E19">
         <v>4.648395105702889</v>
       </c>
       <c r="F19">
-        <v>5.18542954170033</v>
+        <v>5.185429541700387</v>
       </c>
       <c r="G19">
-        <v>4.323992437712818</v>
+        <v>4.323992437712874</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.34141014678659</v>
+        <v>17.34141014678664</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.82554129790708</v>
+        <v>5.825541297908046</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1872010393009589</v>
+        <v>0.1872010393009802</v>
       </c>
       <c r="E20">
-        <v>4.89167912515785</v>
+        <v>4.891679125157935</v>
       </c>
       <c r="F20">
-        <v>5.603223536062757</v>
+        <v>5.603223536062785</v>
       </c>
       <c r="G20">
-        <v>4.684159822233127</v>
+        <v>4.684159822233141</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.903266787531606</v>
+        <v>6.903266787531663</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2755423876508303</v>
+        <v>0.2755423876506171</v>
       </c>
       <c r="E21">
-        <v>5.806725952628483</v>
+        <v>5.806725952628511</v>
       </c>
       <c r="F21">
-        <v>7.330671246215047</v>
+        <v>7.330671246214962</v>
       </c>
       <c r="G21">
-        <v>6.183016307206387</v>
+        <v>6.18301630720633</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.95446424467872</v>
+        <v>21.95446424467883</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.752784919766384</v>
+        <v>7.752784919767066</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3637188782401637</v>
+        <v>0.3637188782400784</v>
       </c>
       <c r="E22">
-        <v>6.538254691814501</v>
+        <v>6.538254691814672</v>
       </c>
       <c r="F22">
-        <v>8.910785422694943</v>
+        <v>8.910785422695113</v>
       </c>
       <c r="G22">
-        <v>7.566008505134903</v>
+        <v>7.566008505135045</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.94896527763268</v>
+        <v>24.94896527763314</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.279115952087011</v>
+        <v>7.279115952086499</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3122594661085998</v>
+        <v>0.3122594661085074</v>
       </c>
       <c r="E23">
-        <v>6.129047439541608</v>
+        <v>6.129047439541552</v>
       </c>
       <c r="F23">
-        <v>8.003196550019538</v>
+        <v>8.003196550019567</v>
       </c>
       <c r="G23">
-        <v>6.770345017982265</v>
+        <v>6.770345017982294</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.26505422741656</v>
+        <v>23.26505422741639</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.809377197498293</v>
+        <v>5.809377197498861</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1860453038836951</v>
+        <v>0.1860453038835885</v>
       </c>
       <c r="E24">
-        <v>4.878040174014501</v>
+        <v>4.878040174014529</v>
       </c>
       <c r="F24">
-        <v>5.579362286852302</v>
+        <v>5.579362286852273</v>
       </c>
       <c r="G24">
-        <v>4.663563386107711</v>
+        <v>4.663563386107697</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.24513059576293</v>
+        <v>18.24513059576299</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.517815164702824</v>
+        <v>4.517815164703109</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1073652415639827</v>
+        <v>0.1073652415638904</v>
       </c>
       <c r="E25">
-        <v>3.793950957664151</v>
+        <v>3.793950957664208</v>
       </c>
       <c r="F25">
-        <v>3.843705565347847</v>
+        <v>3.843705565347904</v>
       </c>
       <c r="G25">
-        <v>3.174604045228818</v>
+        <v>3.174604045228833</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.01957810838039</v>
+        <v>14.01957810838061</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.674904866254508</v>
+        <v>3.67452147034669</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06889770624891156</v>
+        <v>0.06855542310040619</v>
       </c>
       <c r="E2">
-        <v>3.090493752168669</v>
+        <v>3.090133248863026</v>
       </c>
       <c r="F2">
-        <v>2.877397374785033</v>
+        <v>2.870821827653799</v>
       </c>
       <c r="G2">
-        <v>2.355021675166185</v>
+        <v>0.8220332934824199</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.529293267402707</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,36 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.32774573059183</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>11.3257682198539</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.140117095298535</v>
+        <v>3.139869164653931</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04914553816461265</v>
+        <v>0.04889163634079097</v>
       </c>
       <c r="E3">
-        <v>2.644883004042669</v>
+        <v>2.644618478770283</v>
       </c>
       <c r="F3">
-        <v>2.327350009420101</v>
+        <v>2.322183788716146</v>
       </c>
       <c r="G3">
-        <v>1.892401618207273</v>
+        <v>0.6604343835295623</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.230002924884289</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,36 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.640487321950616</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>9.639136197880759</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.823654640817779</v>
+        <v>2.823470372442046</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03906739264400372</v>
+        <v>0.03885861875853536</v>
       </c>
       <c r="E4">
-        <v>2.381232751040315</v>
+        <v>2.38101483231749</v>
       </c>
       <c r="F4">
-        <v>2.024444915342258</v>
+        <v>2.02002251389132</v>
       </c>
       <c r="G4">
-        <v>1.639135265431307</v>
+        <v>0.571505242866678</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.066593017975208</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,36 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.648258823736739</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.647207899240442</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.697013118682833</v>
+        <v>2.696851266721751</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03536267932693704</v>
+        <v>0.03517057734491758</v>
       </c>
       <c r="E5">
-        <v>2.275708099530107</v>
+        <v>2.275507064883058</v>
       </c>
       <c r="F5">
-        <v>1.907941190806369</v>
+        <v>1.903799188633755</v>
       </c>
       <c r="G5">
-        <v>1.542049442098985</v>
+        <v>0.5373073375436519</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.004057428563428</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,36 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.252330197418729</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.251386464038916</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.676107700455873</v>
+        <v>2.675949389010782</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03476904705028261</v>
+        <v>0.03457962317795094</v>
       </c>
       <c r="E6">
-        <v>2.258286910819152</v>
+        <v>2.258088574444713</v>
       </c>
       <c r="F6">
-        <v>1.888969584955262</v>
+        <v>1.884872953656838</v>
       </c>
       <c r="G6">
-        <v>1.526258340477327</v>
+        <v>0.5317386332257712</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9938921914064167</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,36 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.187030681906691</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.186103970575942</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.821938093862286</v>
+        <v>2.821754140615042</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03901592915265795</v>
+        <v>0.03880738643554338</v>
       </c>
       <c r="E7">
-        <v>2.379802529601704</v>
+        <v>2.379584846084896</v>
       </c>
       <c r="F7">
-        <v>2.022847719369977</v>
+        <v>2.0184291829177</v>
       </c>
       <c r="G7">
-        <v>1.63780299004857</v>
+        <v>0.571036396378247</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.065734434865021</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.642888093616619</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.641838669595728</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.487580166661303</v>
+        <v>3.487248544833164</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06158291857911635</v>
+        <v>0.06127342384520773</v>
       </c>
       <c r="E8">
-        <v>2.934375499696131</v>
+        <v>2.934051385919531</v>
       </c>
       <c r="F8">
-        <v>2.679252557871024</v>
+        <v>2.673193822893253</v>
       </c>
       <c r="G8">
-        <v>2.188002258048542</v>
+        <v>0.7637997480672283</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.421138366335924</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,36 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.73511267269444</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>10.73337313604128</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.930337301248471</v>
+        <v>4.929450494006403</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1297217233513663</v>
+        <v>0.1290980556708945</v>
       </c>
       <c r="E9">
-        <v>4.139159439788443</v>
+        <v>4.138446073183928</v>
       </c>
       <c r="F9">
-        <v>4.362914632560887</v>
+        <v>4.352082821942162</v>
       </c>
       <c r="G9">
-        <v>3.61797450028719</v>
+        <v>1.259524073294997</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.349699180512275</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,36 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.3543056111854</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>15.35005365308774</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.17326304825832</v>
+        <v>6.17144637890101</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2132059600822132</v>
+        <v>0.2121498670684758</v>
       </c>
       <c r="E10">
-        <v>5.185628857869546</v>
+        <v>5.184236217799054</v>
       </c>
       <c r="F10">
-        <v>6.130496045473279</v>
+        <v>6.113431186474628</v>
       </c>
       <c r="G10">
-        <v>5.140070088538295</v>
+        <v>1.782286066053828</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.341989112033048</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,36 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.46357156367293</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>19.4551698695289</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.826918443384727</v>
+        <v>6.824290533149508</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2684901635729631</v>
+        <v>0.26710197801264</v>
       </c>
       <c r="E11">
-        <v>5.741479915771407</v>
+        <v>5.73946527061355</v>
       </c>
       <c r="F11">
-        <v>7.198818250180551</v>
+        <v>7.177078912515384</v>
       </c>
       <c r="G11">
-        <v>6.068103141606855</v>
+        <v>2.099316382534894</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.947925221056778</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,36 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.69073296554905</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>21.67871831877426</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.096600996949121</v>
+        <v>7.093531191713055</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.294003576408663</v>
+        <v>0.2924453890078809</v>
       </c>
       <c r="E12">
-        <v>5.972283956755206</v>
+        <v>5.969921215348819</v>
       </c>
       <c r="F12">
-        <v>7.67164148395068</v>
+        <v>7.647530109410582</v>
       </c>
       <c r="G12">
-        <v>6.48054332641253</v>
+        <v>2.239854612589994</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.217312982807243</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,36 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.62599736136951</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>22.61201395054781</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.03726614590596</v>
+        <v>7.034300324459025</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2882440200582153</v>
+        <v>0.2867252743622402</v>
       </c>
       <c r="E13">
-        <v>5.92142082679743</v>
+        <v>5.91914051936817</v>
       </c>
       <c r="F13">
-        <v>7.565898399090258</v>
+        <v>7.5423363806635</v>
       </c>
       <c r="G13">
-        <v>6.388217646736678</v>
+        <v>2.208413379557868</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4.157007751050372</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,36 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.41932558809305</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>22.4058055382979</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.848570272186635</v>
+        <v>6.845909636954104</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2704767316643171</v>
+        <v>0.2690757314449144</v>
       </c>
       <c r="E14">
-        <v>5.759975777125419</v>
+        <v>5.757935558576889</v>
       </c>
       <c r="F14">
-        <v>7.236052997846798</v>
+        <v>7.214134452628116</v>
       </c>
       <c r="G14">
-        <v>6.100546111786628</v>
+        <v>2.110379041804549</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3.969114350224856</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,36 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.7654434508479</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>21.75328303501453</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.736320436809592</v>
+        <v>6.733824759440495</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2602910310104249</v>
+        <v>0.2589550289420757</v>
       </c>
       <c r="E15">
-        <v>5.664149969864098</v>
+        <v>5.662238305593945</v>
       </c>
       <c r="F15">
-        <v>7.044354293466426</v>
+        <v>7.023345482501668</v>
       </c>
       <c r="G15">
-        <v>5.933585486223564</v>
+        <v>2.053433184141355</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3.860072294737222</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,36 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.37881100192283</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>21.36738532914836</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.132942777621224</v>
+        <v>6.131166830096447</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2100758979838488</v>
+        <v>0.2090373454380909</v>
       </c>
       <c r="E16">
-        <v>5.151487455002922</v>
+        <v>5.150125374158421</v>
       </c>
       <c r="F16">
-        <v>6.06796050437589</v>
+        <v>6.051144538727016</v>
       </c>
       <c r="G16">
-        <v>5.085921679201917</v>
+        <v>1.763751983592329</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3.306649236974451</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,36 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.32785958883699</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>19.31963928155614</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.789837840763994</v>
+        <v>5.788374459284</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1846543641481233</v>
+        <v>0.1837540162456861</v>
       </c>
       <c r="E17">
-        <v>4.861556109185386</v>
+        <v>4.860426219737946</v>
       </c>
       <c r="F17">
-        <v>5.550593824189605</v>
+        <v>5.53574832320362</v>
       </c>
       <c r="G17">
-        <v>4.63873534346375</v>
+        <v>1.610523398244212</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3.014882945684391</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,36 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.18009517101723</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>18.1732676425766</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.600002502963662</v>
+        <v>5.598689056592434</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1714842625331912</v>
+        <v>0.1706527681002399</v>
       </c>
       <c r="E18">
-        <v>4.701562232994547</v>
+        <v>4.700542167427102</v>
       </c>
       <c r="F18">
-        <v>5.275329007456889</v>
+        <v>5.261472431549834</v>
       </c>
       <c r="G18">
-        <v>4.401408063920712</v>
+        <v>1.52907790619463</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.860114158193682</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,36 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.55020064826459</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>17.5440417648133</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.536846687249522</v>
+        <v>5.535579932652524</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1672383032526312</v>
+        <v>0.166428640491219</v>
       </c>
       <c r="E19">
-        <v>4.648395105702889</v>
+        <v>4.64740902664829</v>
       </c>
       <c r="F19">
-        <v>5.185429541700387</v>
+        <v>5.171887706169144</v>
       </c>
       <c r="G19">
-        <v>4.323992437712874</v>
+        <v>1.502490684022959</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.809641932138859</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,36 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.34141014678664</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>17.33545959881928</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.825541297908046</v>
+        <v>5.824048008859961</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1872010393009802</v>
+        <v>0.1862871708855423</v>
       </c>
       <c r="E20">
-        <v>4.891679125157935</v>
+        <v>4.890527205614234</v>
       </c>
       <c r="F20">
-        <v>5.603223536062785</v>
+        <v>5.588184457821029</v>
       </c>
       <c r="G20">
-        <v>4.684159822233141</v>
+        <v>1.626101892087178</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.044512126389648</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,36 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.29896078147289</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>18.29199993145289</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.903266787531663</v>
+        <v>6.900521460954565</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2755423876506171</v>
+        <v>0.2741083994745708</v>
       </c>
       <c r="E21">
-        <v>5.806725952628511</v>
+        <v>5.804619393453436</v>
       </c>
       <c r="F21">
-        <v>7.330671246214962</v>
+        <v>7.308291701214756</v>
       </c>
       <c r="G21">
-        <v>6.18301630720633</v>
+        <v>2.13849437162456</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.022978365703125</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,36 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.95446424467883</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>21.94192656270127</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.752784919767066</v>
+        <v>7.748221386168666</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3637188782400784</v>
+        <v>0.3616232903429264</v>
       </c>
       <c r="E22">
-        <v>6.538254691814672</v>
+        <v>6.534678175919908</v>
       </c>
       <c r="F22">
-        <v>8.910785422695113</v>
+        <v>8.879231621206117</v>
       </c>
       <c r="G22">
-        <v>7.566008505135045</v>
+        <v>2.608700647062307</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.926241720558068</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,36 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.94896527763314</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>24.92831877141219</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.279115952086499</v>
+        <v>7.275698903646401</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3122594661085074</v>
+        <v>0.3105717875373273</v>
       </c>
       <c r="E23">
-        <v>6.129047439541552</v>
+        <v>6.126407263781232</v>
       </c>
       <c r="F23">
-        <v>8.003196550019567</v>
+        <v>7.977285156870778</v>
       </c>
       <c r="G23">
-        <v>6.770345017982294</v>
+        <v>2.338476447602886</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.406607102269533</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,36 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.26505422741639</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>23.24952304198655</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.809377197498861</v>
+        <v>5.80789751861488</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1860453038835885</v>
+        <v>0.1851375799018911</v>
       </c>
       <c r="E24">
-        <v>4.878040174014529</v>
+        <v>4.876898284833572</v>
       </c>
       <c r="F24">
-        <v>5.579362286852273</v>
+        <v>5.564411156641398</v>
       </c>
       <c r="G24">
-        <v>4.663563386107697</v>
+        <v>1.619038665257563</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.031077375602905</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,36 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.24513059576299</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>18.23823041508768</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.517815164703109</v>
+        <v>4.517128786347655</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1073652415638904</v>
+        <v>0.1068473498680618</v>
       </c>
       <c r="E25">
-        <v>3.793950957664208</v>
+        <v>3.793378819601713</v>
       </c>
       <c r="F25">
-        <v>3.843705565347904</v>
+        <v>3.834444901742046</v>
       </c>
       <c r="G25">
-        <v>3.174604045228833</v>
+        <v>1.106423283185919</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.061268992932781</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,9 +1385,12 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.01957810838061</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>14.01622637525736</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_line/pl_mw.xlsx
@@ -427,16 +427,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.08576625989947928</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1359697454569719</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.978942931388758</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007498061404477338</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2273247483513217</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,122 +460,1088 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>5.520773989079601</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.08065975048867813</v>
+      </c>
+      <c r="E3">
+        <v>0.1219785436180523</v>
+      </c>
+      <c r="F3">
+        <v>1.741874578264799</v>
+      </c>
+      <c r="G3">
+        <v>0.0007568237318265059</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.2004213100205874</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>4.83880229229203</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.07764057891414922</v>
+      </c>
+      <c r="E4">
+        <v>0.1136147045423748</v>
+      </c>
+      <c r="F4">
+        <v>1.599611838403689</v>
+      </c>
+      <c r="G4">
+        <v>0.0007612559004357688</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.1842960733825336</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>4.429283052050039</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.07643752594195519</v>
+      </c>
+      <c r="E5">
+        <v>0.1102579329075404</v>
+      </c>
+      <c r="F5">
+        <v>1.542376418413639</v>
+      </c>
+      <c r="G5">
+        <v>0.0007630943178718552</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.1778130880939557</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>4.26445268829525</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.07623935360215484</v>
+      </c>
+      <c r="E6">
+        <v>0.1097035056413134</v>
+      </c>
+      <c r="F6">
+        <v>1.532914542666916</v>
+      </c>
+      <c r="G6">
+        <v>0.0007634015699826341</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.176741619817733</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>4.237199325944744</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.07762424611757268</v>
+      </c>
+      <c r="E7">
+        <v>0.1135692321060056</v>
+      </c>
+      <c r="F7">
+        <v>1.598837069909834</v>
+      </c>
+      <c r="G7">
+        <v>0.0007612805617015102</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.1842082981816304</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>4.427052118205211</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.08398018891359271</v>
+      </c>
+      <c r="E8">
+        <v>0.1310950688487225</v>
+      </c>
+      <c r="F8">
+        <v>1.896459714006781</v>
+      </c>
+      <c r="G8">
+        <v>0.00075220099420355</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.2179599782118089</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>5.283551298808163</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.09746310262993063</v>
+      </c>
+      <c r="E9">
+        <v>0.1675353365914418</v>
+      </c>
+      <c r="F9">
+        <v>2.510836012673025</v>
+      </c>
+      <c r="G9">
+        <v>0.0007353123837497977</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.2878080285792066</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>7.049484321021396</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.1081394645470155</v>
+      </c>
+      <c r="E10">
+        <v>0.1959945670818328</v>
+      </c>
+      <c r="F10">
+        <v>2.988080076194876</v>
+      </c>
+      <c r="G10">
+        <v>0.0007233668240919016</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.3421956624826805</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>8.42018942172723</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.1132014926893703</v>
+      </c>
+      <c r="E11">
+        <v>0.2094156318129095</v>
+      </c>
+      <c r="F11">
+        <v>3.212631996128238</v>
+      </c>
+      <c r="G11">
+        <v>0.0007180085468874295</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.3678194638590071</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>9.064965924582395</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.1151514393179198</v>
+      </c>
+      <c r="E12">
+        <v>0.2145764037657472</v>
+      </c>
+      <c r="F12">
+        <v>3.298910046315086</v>
+      </c>
+      <c r="G12">
+        <v>0.0007159881034913829</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.3776699852107726</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>9.312686875616009</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.1147299517844118</v>
+      </c>
+      <c r="E13">
+        <v>0.2134612708958699</v>
+      </c>
+      <c r="F13">
+        <v>3.280270141153892</v>
+      </c>
+      <c r="G13">
+        <v>0.0007164228981283822</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.3755415923832714</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>9.259168750958963</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.1133612314575601</v>
+      </c>
+      <c r="E14">
+        <v>0.2098385750750253</v>
+      </c>
+      <c r="F14">
+        <v>3.219704114662647</v>
+      </c>
+      <c r="G14">
+        <v>0.0007178421650007888</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.3686267927804465</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>9.085271643591739</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.1125272693570594</v>
+      </c>
+      <c r="E15">
+        <v>0.2076301184875149</v>
+      </c>
+      <c r="F15">
+        <v>3.182773359589163</v>
+      </c>
+      <c r="G15">
+        <v>0.0007187125570911309</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.364411117899536</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>8.979234096696359</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.1078130738614433</v>
+      </c>
+      <c r="E16">
+        <v>0.1951278692833327</v>
+      </c>
+      <c r="F16">
+        <v>2.973569363332558</v>
+      </c>
+      <c r="G16">
+        <v>0.0007237183370162677</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.3405405347664754</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>8.378520743812999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.104976043754931</v>
+      </c>
+      <c r="E17">
+        <v>0.1875866459848439</v>
+      </c>
+      <c r="F17">
+        <v>2.847254704356175</v>
+      </c>
+      <c r="G17">
+        <v>0.0007268071007385335</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.3261365002021392</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>8.015780684864751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.1033633474487701</v>
+      </c>
+      <c r="E18">
+        <v>0.1832931440395313</v>
+      </c>
+      <c r="F18">
+        <v>2.775291589492582</v>
+      </c>
+      <c r="G18">
+        <v>0.0007285909641302511</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.3179333893322109</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>7.809107281374168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.1028204932594647</v>
+      </c>
+      <c r="E19">
+        <v>0.1818467053693453</v>
+      </c>
+      <c r="F19">
+        <v>2.751039638791383</v>
+      </c>
+      <c r="G19">
+        <v>0.0007291962666069318</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.3151694092983917</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>7.739454382194253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.1052760505135382</v>
+      </c>
+      <c r="E20">
+        <v>0.1883847970888581</v>
+      </c>
+      <c r="F20">
+        <v>2.860628542161237</v>
+      </c>
+      <c r="G20">
+        <v>0.0007264775579663663</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.3276612379046213</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>8.054188154448923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.1137623300267521</v>
+      </c>
+      <c r="E21">
+        <v>0.2109004301091773</v>
+      </c>
+      <c r="F21">
+        <v>3.237458537288376</v>
+      </c>
+      <c r="G21">
+        <v>0.0007174250775938213</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.3706536622629528</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>9.136248527455905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.1195033031277077</v>
+      </c>
+      <c r="E22">
+        <v>0.2260790047861221</v>
+      </c>
+      <c r="F22">
+        <v>3.491093662348447</v>
+      </c>
+      <c r="G22">
+        <v>0.0007115577294591212</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.3996219918742412</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>9.864460275483623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.1164201378040843</v>
+      </c>
+      <c r="E23">
+        <v>0.2179317954575168</v>
+      </c>
+      <c r="F23">
+        <v>3.354987425575217</v>
+      </c>
+      <c r="G23">
+        <v>0.0007146855933096301</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.3840739580264483</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>9.473692027688458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.1051403605639081</v>
+      </c>
+      <c r="E24">
+        <v>0.1880238227615649</v>
+      </c>
+      <c r="F24">
+        <v>2.854580196936581</v>
+      </c>
+      <c r="G24">
+        <v>0.0007266265187992746</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.3269716626694787</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>8.036818347951623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.09369203427059603</v>
+      </c>
+      <c r="E25">
+        <v>0.1574144629667913</v>
+      </c>
+      <c r="F25">
+        <v>2.340651936903257</v>
+      </c>
+      <c r="G25">
+        <v>0.0007397924309151029</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.2684393150567246</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>6.560516147653971</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_line/pl_mw.xlsx
@@ -427,16 +427,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08576625989947928</v>
+        <v>0.1740869811147974</v>
       </c>
       <c r="E2">
-        <v>0.1359697454569719</v>
+        <v>0.1584551540435015</v>
       </c>
       <c r="F2">
-        <v>1.978942931388758</v>
+        <v>1.586058537684792</v>
       </c>
       <c r="G2">
-        <v>0.0007498061404477338</v>
+        <v>0.002415559989363013</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2273247483513217</v>
+        <v>0.1913305446091726</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.520773989079601</v>
+        <v>3.975293305671983</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -474,16 +474,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08065975048867813</v>
+        <v>0.1738283514954659</v>
       </c>
       <c r="E3">
-        <v>0.1219785436180523</v>
+        <v>0.1560976871574269</v>
       </c>
       <c r="F3">
-        <v>1.741874578264799</v>
+        <v>1.537274724656413</v>
       </c>
       <c r="G3">
-        <v>0.0007568237318265059</v>
+        <v>0.002420193372918766</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2004213100205874</v>
+        <v>0.1859881629286377</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.83880229229203</v>
+        <v>3.829925653828354</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -521,16 +521,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07764057891414922</v>
+        <v>0.1737352727056418</v>
       </c>
       <c r="E4">
-        <v>0.1136147045423748</v>
+        <v>0.1547365595057606</v>
       </c>
       <c r="F4">
-        <v>1.599611838403689</v>
+        <v>1.508292599236015</v>
       </c>
       <c r="G4">
-        <v>0.0007612559004357688</v>
+        <v>0.002423190390455585</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1842960733825336</v>
+        <v>0.1828259976755433</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.429283052050039</v>
+        <v>3.743161388050737</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07643752594195519</v>
+        <v>0.173713882169821</v>
       </c>
       <c r="E5">
-        <v>0.1102579329075404</v>
+        <v>0.154203567062531</v>
       </c>
       <c r="F5">
-        <v>1.542376418413639</v>
+        <v>1.496725533069409</v>
       </c>
       <c r="G5">
-        <v>0.0007630943178718552</v>
+        <v>0.002424450076757445</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1778130880939557</v>
+        <v>0.181566964411239</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.26445268829525</v>
+        <v>3.70842818185713</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -615,16 +615,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07623935360215484</v>
+        <v>0.1737113296677322</v>
       </c>
       <c r="E6">
-        <v>0.1097035056413134</v>
+        <v>0.1541163722461789</v>
       </c>
       <c r="F6">
-        <v>1.532914542666916</v>
+        <v>1.494819505439409</v>
       </c>
       <c r="G6">
-        <v>0.0007634015699826341</v>
+        <v>0.002424661568398314</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.176741619817733</v>
+        <v>0.1813596857493067</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.237199325944744</v>
+        <v>3.702698365185711</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07762424611757268</v>
+        <v>0.1737349172369989</v>
       </c>
       <c r="E7">
-        <v>0.1135692321060056</v>
+        <v>0.1547292836603447</v>
       </c>
       <c r="F7">
-        <v>1.598837069909834</v>
+        <v>1.50813561742865</v>
       </c>
       <c r="G7">
-        <v>0.0007612805617015102</v>
+        <v>0.002423207223660427</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1842082981816304</v>
+        <v>0.1828088983185054</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.427052118205211</v>
+        <v>3.742690441195975</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08398018891359271</v>
+        <v>0.1739841729762546</v>
       </c>
       <c r="E8">
-        <v>0.1310950688487225</v>
+        <v>0.1576243489919804</v>
       </c>
       <c r="F8">
-        <v>1.896459714006781</v>
+        <v>1.569035736272326</v>
       </c>
       <c r="G8">
-        <v>0.00075220099420355</v>
+        <v>0.002417126089511913</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2179599782118089</v>
+        <v>0.1894639112098275</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.283551298808163</v>
+        <v>3.92465161631327</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -756,16 +756,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09746310262993063</v>
+        <v>0.1749940350984289</v>
       </c>
       <c r="E9">
-        <v>0.1675353365914418</v>
+        <v>0.1639891454149165</v>
       </c>
       <c r="F9">
-        <v>2.510836012673025</v>
+        <v>1.696215314610924</v>
       </c>
       <c r="G9">
-        <v>0.0007353123837497977</v>
+        <v>0.002406401938534081</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2878080285792066</v>
+        <v>0.2034575054671848</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7.049484321021396</v>
+        <v>4.301396925444863</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -803,16 +803,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1081394645470155</v>
+        <v>0.176053429039797</v>
       </c>
       <c r="E10">
-        <v>0.1959945670818328</v>
+        <v>0.1690884747248944</v>
       </c>
       <c r="F10">
-        <v>2.988080076194876</v>
+        <v>1.794459758914087</v>
       </c>
       <c r="G10">
-        <v>0.0007233668240919016</v>
+        <v>0.00239924673843737</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3421956624826805</v>
+        <v>0.2143235631690743</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>8.42018942172723</v>
+        <v>4.590573542432764</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -850,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1132014926893703</v>
+        <v>0.1766042903178189</v>
       </c>
       <c r="E11">
-        <v>0.2094156318129095</v>
+        <v>0.1715010782485393</v>
       </c>
       <c r="F11">
-        <v>3.212631996128238</v>
+        <v>1.840215008519493</v>
       </c>
       <c r="G11">
-        <v>0.0007180085468874295</v>
+        <v>0.00239614705872108</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3678194638590071</v>
+        <v>0.2193960977187288</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.064965924582395</v>
+        <v>4.724870106639401</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1151514393179198</v>
+        <v>0.1768227941905849</v>
       </c>
       <c r="E12">
-        <v>0.2145764037657472</v>
+        <v>0.1724280870052368</v>
       </c>
       <c r="F12">
-        <v>3.298910046315086</v>
+        <v>1.857695457956879</v>
       </c>
       <c r="G12">
-        <v>0.0007159881034913829</v>
+        <v>0.002394995481506987</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3776699852107726</v>
+        <v>0.2213357164881842</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>9.312686875616009</v>
+        <v>4.776123705914642</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1147299517844118</v>
+        <v>0.176775295088845</v>
       </c>
       <c r="E13">
-        <v>0.2134612708958699</v>
+        <v>0.1722278419399643</v>
       </c>
       <c r="F13">
-        <v>3.280270141153892</v>
+        <v>1.853923867927165</v>
       </c>
       <c r="G13">
-        <v>0.0007164228981283822</v>
+        <v>0.002395242508834146</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3755415923832714</v>
+        <v>0.2209171483286099</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>9.259168750958963</v>
+        <v>4.765067556405256</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -991,16 +991,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1133612314575601</v>
+        <v>0.1766220683053774</v>
       </c>
       <c r="E14">
-        <v>0.2098385750750253</v>
+        <v>0.1715770748055547</v>
       </c>
       <c r="F14">
-        <v>3.219704114662647</v>
+        <v>1.841650044738742</v>
       </c>
       <c r="G14">
-        <v>0.0007178421650007888</v>
+        <v>0.002396051873487624</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3686267927804465</v>
+        <v>0.2195552945536008</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.085271643591739</v>
+        <v>4.729078768254283</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1125272693570594</v>
+        <v>0.1765295021121389</v>
       </c>
       <c r="E15">
-        <v>0.2076301184875149</v>
+        <v>0.1711802087939205</v>
       </c>
       <c r="F15">
-        <v>3.182773359589163</v>
+        <v>1.83415205034737</v>
       </c>
       <c r="G15">
-        <v>0.0007187125570911309</v>
+        <v>0.002396550520847136</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.364411117899536</v>
+        <v>0.2187235669911161</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>8.979234096696359</v>
+        <v>4.707086574762002</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1085,16 +1085,16 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1078130738614433</v>
+        <v>0.1760188154244986</v>
       </c>
       <c r="E16">
-        <v>0.1951278692833327</v>
+        <v>0.1689326789280017</v>
       </c>
       <c r="F16">
-        <v>2.973569363332558</v>
+        <v>1.791491030024503</v>
       </c>
       <c r="G16">
-        <v>0.0007237183370162677</v>
+        <v>0.002399452423562754</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3405405347664754</v>
+        <v>0.2139946788175706</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>8.378520743812999</v>
+        <v>4.581852524519547</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1132,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.104976043754931</v>
+        <v>0.1757231760738733</v>
       </c>
       <c r="E17">
-        <v>0.1875866459848439</v>
+        <v>0.1675777197095343</v>
       </c>
       <c r="F17">
-        <v>2.847254704356175</v>
+        <v>1.765592947740515</v>
       </c>
       <c r="G17">
-        <v>0.0007268071007385335</v>
+        <v>0.002401272324906944</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3261365002021392</v>
+        <v>0.2111269263639315</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>8.015780684864751</v>
+        <v>4.505731717013873</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1179,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1033633474487701</v>
+        <v>0.1755596213571522</v>
       </c>
       <c r="E18">
-        <v>0.1832931440395313</v>
+        <v>0.1668071234688853</v>
       </c>
       <c r="F18">
-        <v>2.775291589492582</v>
+        <v>1.750797082196556</v>
       </c>
       <c r="G18">
-        <v>0.0007285909641302511</v>
+        <v>0.00240233370465939</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3179333893322109</v>
+        <v>0.2094896528481058</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>7.809107281374168</v>
+        <v>4.462207568522899</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1028204932594647</v>
+        <v>0.1755053593350553</v>
       </c>
       <c r="E19">
-        <v>0.1818467053693453</v>
+        <v>0.1665477124916208</v>
       </c>
       <c r="F19">
-        <v>2.751039638791383</v>
+        <v>1.745804605181746</v>
       </c>
       <c r="G19">
-        <v>0.0007291962666069318</v>
+        <v>0.002402695584620141</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3151694092983917</v>
+        <v>0.2089373882817682</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>7.739454382194253</v>
+        <v>4.447515346699447</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1273,16 +1273,16 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1052760505135382</v>
+        <v>0.1757539758419568</v>
       </c>
       <c r="E20">
-        <v>0.1883847970888581</v>
+        <v>0.1677210524654029</v>
       </c>
       <c r="F20">
-        <v>2.860628542161237</v>
+        <v>1.768339483154421</v>
       </c>
       <c r="G20">
-        <v>0.0007264775579663663</v>
+        <v>0.002401077080862745</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3276612379046213</v>
+        <v>0.2114309417491569</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>8.054188154448923</v>
+        <v>4.513808127811672</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1320,16 +1320,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1137623300267521</v>
+        <v>0.1766668059815757</v>
       </c>
       <c r="E21">
-        <v>0.2109004301091773</v>
+        <v>0.1717678565881826</v>
       </c>
       <c r="F21">
-        <v>3.237458537288376</v>
+        <v>1.845250978317722</v>
       </c>
       <c r="G21">
-        <v>0.0007174250775938213</v>
+        <v>0.002395813541768803</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3706536622629528</v>
+        <v>0.2199547937790811</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.136248527455905</v>
+        <v>4.739638709769963</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1367,16 +1367,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1195033031277077</v>
+        <v>0.1773211216157335</v>
       </c>
       <c r="E22">
-        <v>0.2260790047861221</v>
+        <v>0.1744908541517773</v>
       </c>
       <c r="F22">
-        <v>3.491093662348447</v>
+        <v>1.896414790630274</v>
       </c>
       <c r="G22">
-        <v>0.0007115577294591212</v>
+        <v>0.002392502880711286</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3996219918742412</v>
+        <v>0.2256350364452402</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9.864460275483623</v>
+        <v>4.889555756342702</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1164201378040843</v>
+        <v>0.176966621572177</v>
       </c>
       <c r="E23">
-        <v>0.2179317954575168</v>
+        <v>0.1730303690042234</v>
       </c>
       <c r="F23">
-        <v>3.354987425575217</v>
+        <v>1.869025219674029</v>
       </c>
       <c r="G23">
-        <v>0.0007146855933096301</v>
+        <v>0.002394258045954197</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3840739580264483</v>
+        <v>0.2225933271111273</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>9.473692027688458</v>
+        <v>4.809328534291183</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1461,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1051403605639081</v>
+        <v>0.1757400312938202</v>
       </c>
       <c r="E24">
-        <v>0.1880238227615649</v>
+        <v>0.1676562256042757</v>
       </c>
       <c r="F24">
-        <v>2.854580196936581</v>
+        <v>1.767097483987953</v>
       </c>
       <c r="G24">
-        <v>0.0007266265187992746</v>
+        <v>0.002401165303850142</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3269716626694787</v>
+        <v>0.211293460785356</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>8.036818347951623</v>
+        <v>4.510156039134927</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09369203427059603</v>
+        <v>0.1746650798688378</v>
       </c>
       <c r="E25">
-        <v>0.1574144629667913</v>
+        <v>0.1621932848350518</v>
       </c>
       <c r="F25">
-        <v>2.340651936903257</v>
+        <v>1.660971659900724</v>
       </c>
       <c r="G25">
-        <v>0.0007397924309151029</v>
+        <v>0.002409175396274585</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2684393150567246</v>
+        <v>0.1995698711110521</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>6.560516147653971</v>
+        <v>4.197320322167002</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_line/pl_mw.xlsx
@@ -427,16 +427,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1740869811147974</v>
+        <v>0.08576625989936559</v>
       </c>
       <c r="E2">
-        <v>0.1584551540435015</v>
+        <v>0.1359697454569684</v>
       </c>
       <c r="F2">
-        <v>1.586058537684792</v>
+        <v>1.978942931388758</v>
       </c>
       <c r="G2">
-        <v>0.002415559989363013</v>
+        <v>0.0007498061404479845</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1913305446091726</v>
+        <v>0.2273247483511511</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.975293305671983</v>
+        <v>5.520773989079601</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -474,16 +474,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1738283514954659</v>
+        <v>0.08065975048865681</v>
       </c>
       <c r="E3">
-        <v>0.1560976871574269</v>
+        <v>0.1219785436180452</v>
       </c>
       <c r="F3">
-        <v>1.537274724656413</v>
+        <v>1.741874578264799</v>
       </c>
       <c r="G3">
-        <v>0.002420193372918766</v>
+        <v>0.0007568237318429415</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1859881629286377</v>
+        <v>0.2004213100206158</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.829925653828354</v>
+        <v>4.838802292291973</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -521,16 +521,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1737352727056418</v>
+        <v>0.07764057891422738</v>
       </c>
       <c r="E4">
-        <v>0.1547365595057606</v>
+        <v>0.1136147045423641</v>
       </c>
       <c r="F4">
-        <v>1.508292599236015</v>
+        <v>1.599611838403689</v>
       </c>
       <c r="G4">
-        <v>0.002423190390455585</v>
+        <v>0.0007612559004492078</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1828259976755433</v>
+        <v>0.1842960733825763</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.743161388050737</v>
+        <v>4.429283052049982</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.173713882169821</v>
+        <v>0.07643752594215414</v>
       </c>
       <c r="E5">
-        <v>0.154203567062531</v>
+        <v>0.1102579329075581</v>
       </c>
       <c r="F5">
-        <v>1.496725533069409</v>
+        <v>1.542376418413639</v>
       </c>
       <c r="G5">
-        <v>0.002424450076757445</v>
+        <v>0.0007630943179411379</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.181566964411239</v>
+        <v>0.1778130880939131</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.70842818185713</v>
+        <v>4.26445268829525</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -615,16 +615,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1737113296677322</v>
+        <v>0.07623935360215484</v>
       </c>
       <c r="E6">
-        <v>0.1541163722461789</v>
+        <v>0.1097035056413063</v>
       </c>
       <c r="F6">
-        <v>1.494819505439409</v>
+        <v>1.532914542666902</v>
       </c>
       <c r="G6">
-        <v>0.002424661568398314</v>
+        <v>0.0007634015699539784</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1813596857493067</v>
+        <v>0.176741619817733</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.702698365185711</v>
+        <v>4.237199325944744</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1737349172369989</v>
+        <v>0.07762424611757268</v>
       </c>
       <c r="E7">
-        <v>0.1547292836603447</v>
+        <v>0.1135692321060411</v>
       </c>
       <c r="F7">
-        <v>1.50813561742865</v>
+        <v>1.598837069909862</v>
       </c>
       <c r="G7">
-        <v>0.002423207223660427</v>
+        <v>0.0007612805617019935</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1828088983185054</v>
+        <v>0.1842082981815167</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.742690441195975</v>
+        <v>4.427052118205211</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1739841729762546</v>
+        <v>0.08398018891369929</v>
       </c>
       <c r="E8">
-        <v>0.1576243489919804</v>
+        <v>0.1310950688486905</v>
       </c>
       <c r="F8">
-        <v>1.569035736272326</v>
+        <v>1.896459714006781</v>
       </c>
       <c r="G8">
-        <v>0.002417126089511913</v>
+        <v>0.0007522009942935561</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1894639112098275</v>
+        <v>0.2179599782117947</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.92465161631327</v>
+        <v>5.28355129880822</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -756,16 +756,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1749940350984289</v>
+        <v>0.09746310262993774</v>
       </c>
       <c r="E9">
-        <v>0.1639891454149165</v>
+        <v>0.1675353365914418</v>
       </c>
       <c r="F9">
-        <v>1.696215314610924</v>
+        <v>2.510836012672996</v>
       </c>
       <c r="G9">
-        <v>0.002406401938534081</v>
+        <v>0.0007353123838018946</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2034575054671848</v>
+        <v>0.2878080285792777</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.301396925444863</v>
+        <v>7.049484321021396</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -803,16 +803,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.176053429039797</v>
+        <v>0.1081394645470155</v>
       </c>
       <c r="E10">
-        <v>0.1690884747248944</v>
+        <v>0.1959945670818684</v>
       </c>
       <c r="F10">
-        <v>1.794459758914087</v>
+        <v>2.988080076194848</v>
       </c>
       <c r="G10">
-        <v>0.00239924673843737</v>
+        <v>0.0007233668241478714</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2143235631690743</v>
+        <v>0.3421956624827374</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.590573542432764</v>
+        <v>8.42018942172723</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -850,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1766042903178189</v>
+        <v>0.1132014926893632</v>
       </c>
       <c r="E11">
-        <v>0.1715010782485393</v>
+        <v>0.2094156318129237</v>
       </c>
       <c r="F11">
-        <v>1.840215008519493</v>
+        <v>3.212631996128266</v>
       </c>
       <c r="G11">
-        <v>0.00239614705872108</v>
+        <v>0.0007180085468844319</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2193960977187288</v>
+        <v>0.3678194638590782</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.724870106639401</v>
+        <v>9.064965924582452</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1768227941905849</v>
+        <v>0.1151514393179198</v>
       </c>
       <c r="E12">
-        <v>0.1724280870052368</v>
+        <v>0.2145764037657756</v>
       </c>
       <c r="F12">
-        <v>1.857695457956879</v>
+        <v>3.298910046315086</v>
       </c>
       <c r="G12">
-        <v>0.002394995481506987</v>
+        <v>0.0007159881034337459</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2213357164881842</v>
+        <v>0.377669985210801</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.776123705914642</v>
+        <v>9.312686875616009</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.176775295088845</v>
+        <v>0.1147299517845113</v>
       </c>
       <c r="E13">
-        <v>0.1722278419399643</v>
+        <v>0.2134612708958059</v>
       </c>
       <c r="F13">
-        <v>1.853923867927165</v>
+        <v>3.280270141153864</v>
       </c>
       <c r="G13">
-        <v>0.002395242508834146</v>
+        <v>0.0007164228981291536</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2209171483286099</v>
+        <v>0.3755415923832714</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.765067556405256</v>
+        <v>9.259168750958963</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -991,16 +991,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1766220683053774</v>
+        <v>0.1133612314575601</v>
       </c>
       <c r="E14">
-        <v>0.1715770748055547</v>
+        <v>0.2098385750749685</v>
       </c>
       <c r="F14">
-        <v>1.841650044738742</v>
+        <v>3.219704114662647</v>
       </c>
       <c r="G14">
-        <v>0.002396051873487624</v>
+        <v>0.0007178421650006907</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2195552945536008</v>
+        <v>0.3686267927803613</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.729078768254283</v>
+        <v>9.085271643591682</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1765295021121389</v>
+        <v>0.1125272693569599</v>
       </c>
       <c r="E15">
-        <v>0.1711802087939205</v>
+        <v>0.2076301184874936</v>
       </c>
       <c r="F15">
-        <v>1.83415205034737</v>
+        <v>3.182773359589191</v>
       </c>
       <c r="G15">
-        <v>0.002396550520847136</v>
+        <v>0.0007187125571483076</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2187235669911161</v>
+        <v>0.3644111178995928</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.707086574762002</v>
+        <v>8.979234096696359</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1085,16 +1085,16 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1760188154244986</v>
+        <v>0.1078130738613297</v>
       </c>
       <c r="E16">
-        <v>0.1689326789280017</v>
+        <v>0.1951278692833327</v>
       </c>
       <c r="F16">
-        <v>1.791491030024503</v>
+        <v>2.973569363332558</v>
       </c>
       <c r="G16">
-        <v>0.002399452423562754</v>
+        <v>0.0007237183369616447</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2139946788175706</v>
+        <v>0.3405405347664754</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.581852524519547</v>
+        <v>8.378520743813056</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1132,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1757231760738733</v>
+        <v>0.1049760437549381</v>
       </c>
       <c r="E17">
-        <v>0.1675777197095343</v>
+        <v>0.187586645984851</v>
       </c>
       <c r="F17">
-        <v>1.765592947740515</v>
+        <v>2.847254704356146</v>
       </c>
       <c r="G17">
-        <v>0.002401272324906944</v>
+        <v>0.000726807100630158</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2111269263639315</v>
+        <v>0.326136500202125</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.505731717013873</v>
+        <v>8.015780684864808</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1179,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1755596213571522</v>
+        <v>0.1033633474489832</v>
       </c>
       <c r="E18">
-        <v>0.1668071234688853</v>
+        <v>0.18329314403951</v>
       </c>
       <c r="F18">
-        <v>1.750797082196556</v>
+        <v>2.77529158949261</v>
       </c>
       <c r="G18">
-        <v>0.00240233370465939</v>
+        <v>0.0007285909641853182</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2094896528481058</v>
+        <v>0.3179333893322109</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.462207568522899</v>
+        <v>7.809107281374224</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1755053593350553</v>
+        <v>0.1028204932594718</v>
       </c>
       <c r="E19">
-        <v>0.1665477124916208</v>
+        <v>0.1818467053693595</v>
       </c>
       <c r="F19">
-        <v>1.745804605181746</v>
+        <v>2.751039638791383</v>
       </c>
       <c r="G19">
-        <v>0.002402695584620141</v>
+        <v>0.0007291962666078912</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2089373882817682</v>
+        <v>0.3151694092983632</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.447515346699447</v>
+        <v>7.739454382194197</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1273,16 +1273,16 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1757539758419568</v>
+        <v>0.1052760505133321</v>
       </c>
       <c r="E20">
-        <v>0.1677210524654029</v>
+        <v>0.188384797088851</v>
       </c>
       <c r="F20">
-        <v>1.768339483154421</v>
+        <v>2.860628542161209</v>
       </c>
       <c r="G20">
-        <v>0.002401077080862745</v>
+        <v>0.0007264775579668425</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2114309417491569</v>
+        <v>0.3276612379046355</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.513808127811672</v>
+        <v>8.054188154448923</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1320,16 +1320,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1766668059815757</v>
+        <v>0.1137623300267592</v>
       </c>
       <c r="E21">
-        <v>0.1717678565881826</v>
+        <v>0.2109004301091773</v>
       </c>
       <c r="F21">
-        <v>1.845250978317722</v>
+        <v>3.237458537288347</v>
       </c>
       <c r="G21">
-        <v>0.002395813541768803</v>
+        <v>0.0007174250776488149</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2199547937790811</v>
+        <v>0.3706536622629528</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.739638709769963</v>
+        <v>9.136248527455905</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1367,16 +1367,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1773211216157335</v>
+        <v>0.1195033031279422</v>
       </c>
       <c r="E22">
-        <v>0.1744908541517773</v>
+        <v>0.2260790047860581</v>
       </c>
       <c r="F22">
-        <v>1.896414790630274</v>
+        <v>3.491093662348447</v>
       </c>
       <c r="G22">
-        <v>0.002392502880711286</v>
+        <v>0.0007115577295730734</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2256350364452402</v>
+        <v>0.3996219918740707</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.889555756342702</v>
+        <v>9.864460275483566</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.176966621572177</v>
+        <v>0.1164201378040701</v>
       </c>
       <c r="E23">
-        <v>0.1730303690042234</v>
+        <v>0.2179317954575026</v>
       </c>
       <c r="F23">
-        <v>1.869025219674029</v>
+        <v>3.354987425575217</v>
       </c>
       <c r="G23">
-        <v>0.002394258045954197</v>
+        <v>0.0007146855933122045</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2225933271111273</v>
+        <v>0.3840739580264199</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.809328534291183</v>
+        <v>9.473692027688571</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1461,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1757400312938202</v>
+        <v>0.1051403605637873</v>
       </c>
       <c r="E24">
-        <v>0.1676562256042757</v>
+        <v>0.188023822761636</v>
       </c>
       <c r="F24">
-        <v>1.767097483987953</v>
+        <v>2.854580196936581</v>
       </c>
       <c r="G24">
-        <v>0.002401165303850142</v>
+        <v>0.0007266265188531204</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.211293460785356</v>
+        <v>0.3269716626694077</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.510156039134927</v>
+        <v>8.036818347951623</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1746650798688378</v>
+        <v>0.09369203427047523</v>
       </c>
       <c r="E25">
-        <v>0.1621932848350518</v>
+        <v>0.1574144629667593</v>
       </c>
       <c r="F25">
-        <v>1.660971659900724</v>
+        <v>2.340651936903285</v>
       </c>
       <c r="G25">
-        <v>0.002409175396274585</v>
+        <v>0.0007397924309138215</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1995698711110521</v>
+        <v>0.2684393150567672</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.197320322167002</v>
+        <v>6.560516147654027</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.5551486225386952</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08576625989936559</v>
+        <v>0.08644107692685665</v>
       </c>
       <c r="E2">
-        <v>0.1359697454569684</v>
+        <v>0.1855367296028128</v>
       </c>
       <c r="F2">
-        <v>1.978942931388758</v>
+        <v>4.843741645566041</v>
       </c>
       <c r="G2">
-        <v>0.0007498061404479845</v>
+        <v>4.870329703439609</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03721719658842293</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.005903807541797867</v>
       </c>
       <c r="J2">
-        <v>0.2273247483511511</v>
+        <v>2.489147209648422</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5634572921613525</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4256362540948828</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,45 +466,51 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.520773989079601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>3.153887678557368</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.4844269334165858</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08065975048865681</v>
+        <v>0.07894329022121127</v>
       </c>
       <c r="E3">
-        <v>0.1219785436180452</v>
+        <v>0.1644109682966608</v>
       </c>
       <c r="F3">
-        <v>1.741874578264799</v>
+        <v>4.243472435771167</v>
       </c>
       <c r="G3">
-        <v>0.0007568237318429415</v>
+        <v>4.238193391804145</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02507066663697533</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.006536737462899733</v>
       </c>
       <c r="J3">
-        <v>0.2004213100206158</v>
+        <v>2.189547463404892</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5248073823398371</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3723690448694015</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,45 +519,51 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.838802292291973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>2.848846467675344</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.4403425188864674</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07764057891422738</v>
+        <v>0.07446738459984914</v>
       </c>
       <c r="E4">
-        <v>0.1136147045423641</v>
+        <v>0.1517100496775221</v>
       </c>
       <c r="F4">
-        <v>1.599611838403689</v>
+        <v>3.880747117651396</v>
       </c>
       <c r="G4">
-        <v>0.0007612559004492078</v>
+        <v>3.85633576890902</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01868697516656304</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.006984047458503895</v>
       </c>
       <c r="J4">
-        <v>0.1842960733825763</v>
+        <v>2.008751657049174</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5017937305816815</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3402613853406393</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,45 +572,51 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.429283052049982</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>2.663189306752713</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.4209941194590954</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07643752594215414</v>
+        <v>0.07266784660028591</v>
       </c>
       <c r="E5">
-        <v>0.1102579329075581</v>
+        <v>0.1465879097053957</v>
       </c>
       <c r="F5">
-        <v>1.542376418413639</v>
+        <v>3.73417828700633</v>
       </c>
       <c r="G5">
-        <v>0.0007630943179411379</v>
+        <v>3.702060376390108</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01632540085027823</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.007262387320026598</v>
       </c>
       <c r="J5">
-        <v>0.1778130880939131</v>
+        <v>1.93575429421594</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4937246986577861</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3272983614834999</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,45 +625,51 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.26445268829525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>2.591606816167086</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.4162777628629755</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07623935360215484</v>
+        <v>0.07237030113450782</v>
       </c>
       <c r="E6">
-        <v>0.1097035056413063</v>
+        <v>0.1457402244321635</v>
       </c>
       <c r="F6">
-        <v>1.532914542666902</v>
+        <v>3.709909657586934</v>
       </c>
       <c r="G6">
-        <v>0.0007634015699539784</v>
+        <v>3.676516991454235</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01594691657221703</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.007416628218759769</v>
       </c>
       <c r="J6">
-        <v>0.176741619817733</v>
+        <v>1.923670924583377</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4937867603190682</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3251523680549369</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,45 +678,51 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.237199325944744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>2.584248125229067</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.435988206108334</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07762424611757268</v>
+        <v>0.07444302604333952</v>
       </c>
       <c r="E7">
-        <v>0.1135692321060411</v>
+        <v>0.1516407717419241</v>
       </c>
       <c r="F7">
-        <v>1.598837069909862</v>
+        <v>3.878765680776098</v>
       </c>
       <c r="G7">
-        <v>0.0007612805617019935</v>
+        <v>3.854250058106373</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01865419304901539</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.007265417066339097</v>
       </c>
       <c r="J7">
-        <v>0.1842082981815167</v>
+        <v>2.007764587756782</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.505497223582914</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3400861079786921</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,45 +731,51 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.427052118205211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>2.67456787079081</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.5254446543241045</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08398018891369929</v>
+        <v>0.08382440846033745</v>
       </c>
       <c r="E8">
-        <v>0.1310950688486905</v>
+        <v>0.1781873124813487</v>
       </c>
       <c r="F8">
-        <v>1.896459714006781</v>
+        <v>4.635414111242568</v>
       </c>
       <c r="G8">
-        <v>0.0007522009942935561</v>
+        <v>4.650912060183828</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.03278690322591249</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.006448909612156051</v>
       </c>
       <c r="J8">
-        <v>0.2179599782117947</v>
+        <v>2.385115868694072</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5550966982666949</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4071268520158213</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,45 +784,51 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.28355129880822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>3.064914032997706</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.7028054351517028</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09746310262993774</v>
+        <v>0.1036348287170039</v>
       </c>
       <c r="E9">
-        <v>0.1675353365914418</v>
+        <v>0.2331268687594559</v>
       </c>
       <c r="F9">
-        <v>2.510836012672996</v>
+        <v>6.176993118630492</v>
       </c>
       <c r="G9">
-        <v>0.0007353123838018946</v>
+        <v>6.275392449412607</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.07056676174253518</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004899430836709406</v>
       </c>
       <c r="J9">
-        <v>0.2878080285792777</v>
+        <v>3.156094402189353</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6512957820391492</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.544840308149773</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,45 +837,51 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7.049484321021396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>3.821446641586363</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.8274133909539216</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1081394645470155</v>
+        <v>0.1198063960204525</v>
       </c>
       <c r="E10">
-        <v>0.1959945670818684</v>
+        <v>0.2683913807959897</v>
       </c>
       <c r="F10">
-        <v>2.988080076194848</v>
+        <v>7.272120155025476</v>
       </c>
       <c r="G10">
-        <v>0.0007233668241478714</v>
+        <v>7.442547316948037</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1051698554765998</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.00422507927281135</v>
       </c>
       <c r="J10">
-        <v>0.3421956624827374</v>
+        <v>3.709682687645795</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.7278334434132816</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.6302013755322378</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,45 +890,51 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>8.42018942172723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>4.392771804451201</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.8764230239589494</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1132014926893632</v>
+        <v>0.130038087071874</v>
       </c>
       <c r="E11">
-        <v>0.2094156318129237</v>
+        <v>0.2227492848037613</v>
       </c>
       <c r="F11">
-        <v>3.212631996128266</v>
+        <v>6.997349043560007</v>
       </c>
       <c r="G11">
-        <v>0.0007180085468844319</v>
+        <v>7.258699983597126</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.1255965978854405</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.004438238944215911</v>
       </c>
       <c r="J11">
-        <v>0.3678194638590782</v>
+        <v>3.611155477198508</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.770167734960765</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4954653383840935</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,45 +943,51 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.064965924582452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>4.676079097228524</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.8984763595842651</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1151514393179198</v>
+        <v>0.1372015883281961</v>
       </c>
       <c r="E12">
-        <v>0.2145764037657756</v>
+        <v>0.1868420982965553</v>
       </c>
       <c r="F12">
-        <v>3.298910046315086</v>
+        <v>6.537297347214064</v>
       </c>
       <c r="G12">
-        <v>0.0007159881034337459</v>
+        <v>6.8566839889981</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1597284507903183</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004298829379830948</v>
       </c>
       <c r="J12">
-        <v>0.377669985210801</v>
+        <v>3.410452785082896</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.7828461607044801</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3859388602191842</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,45 +996,51 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>9.312686875616009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>4.772479656867574</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.8944612085595338</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1147299517845113</v>
+        <v>0.1421674211876294</v>
       </c>
       <c r="E13">
-        <v>0.2134612708958059</v>
+        <v>0.1567307473865682</v>
       </c>
       <c r="F13">
-        <v>3.280270141153864</v>
+        <v>5.915059492535448</v>
       </c>
       <c r="G13">
-        <v>0.0007164228981291536</v>
+        <v>6.269686224682289</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2059451229347218</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.004278899009388937</v>
       </c>
       <c r="J13">
-        <v>0.3755415923832714</v>
+        <v>3.122421448632167</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.7794029683508654</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2909757528956263</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,45 +1049,51 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>9.259168750958963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>4.749436361342759</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.8785493236400441</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1133612314575601</v>
+        <v>0.1448804816261742</v>
       </c>
       <c r="E14">
-        <v>0.2098385750749685</v>
+        <v>0.1399661460338182</v>
       </c>
       <c r="F14">
-        <v>3.219704114662647</v>
+        <v>5.414641407756392</v>
       </c>
       <c r="G14">
-        <v>0.0007178421650006907</v>
+        <v>5.783026857777088</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2469090780179783</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.004405233575648815</v>
       </c>
       <c r="J14">
-        <v>0.3686267927803613</v>
+        <v>2.885050994506457</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.7709080011075216</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2351469681279355</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,45 +1102,51 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.085271643591682</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>4.683040835970473</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.8673533903836415</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1125272693569599</v>
+        <v>0.1447980193701497</v>
       </c>
       <c r="E15">
-        <v>0.2076301184874936</v>
+        <v>0.1358775348482943</v>
       </c>
       <c r="F15">
-        <v>3.182773359589191</v>
+        <v>5.259432296825253</v>
       </c>
       <c r="G15">
-        <v>0.0007187125571483076</v>
+        <v>5.62668170221383</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2561985779495615</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.004585676017240026</v>
       </c>
       <c r="J15">
-        <v>0.3644111178995928</v>
+        <v>2.80945751122357</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.7671135838124812</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2220030986893313</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,45 +1155,51 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>8.979234096696359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>4.646875737567882</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.8121092984665665</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1078130738613297</v>
+        <v>0.1362668005418328</v>
       </c>
       <c r="E16">
-        <v>0.1951278692833327</v>
+        <v>0.1285121349817366</v>
       </c>
       <c r="F16">
-        <v>2.973569363332558</v>
+        <v>4.938902107218382</v>
       </c>
       <c r="G16">
-        <v>0.0007237183369616447</v>
+        <v>5.265494956917678</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2311499438998652</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.005015896760768079</v>
       </c>
       <c r="J16">
-        <v>0.3405405347664754</v>
+        <v>2.640085129294675</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7367419866929126</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2101900940075936</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,45 +1208,51 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>8.378520743813056</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>4.411745866443709</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.7780555216011749</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1049760437549381</v>
+        <v>0.1282321199396961</v>
       </c>
       <c r="E17">
-        <v>0.187586645984851</v>
+        <v>0.1305791600313251</v>
       </c>
       <c r="F17">
-        <v>2.847254704356146</v>
+        <v>4.953725113008488</v>
       </c>
       <c r="G17">
-        <v>0.000726807100630158</v>
+        <v>5.242613929639163</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1882505745769834</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.005306317657361781</v>
       </c>
       <c r="J17">
-        <v>0.326136500202125</v>
+        <v>2.634248145124673</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7182930209565868</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2277775931598498</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,45 +1261,51 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>8.015780684864808</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>4.267897868637277</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.7620504551377394</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1033633474489832</v>
+        <v>0.1205286793321605</v>
       </c>
       <c r="E18">
-        <v>0.18329314403951</v>
+        <v>0.1458538520896688</v>
       </c>
       <c r="F18">
-        <v>2.77529158949261</v>
+        <v>5.261972669882198</v>
       </c>
       <c r="G18">
-        <v>0.0007285909641853182</v>
+        <v>5.509311965064398</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1360929348674134</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.005201912227929206</v>
       </c>
       <c r="J18">
-        <v>0.3179333893322109</v>
+        <v>2.768793819135283</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.704210383409027</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2835965440823216</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,45 +1314,51 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>7.809107281374224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>4.173968501421939</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.7538120580642556</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1028204932594718</v>
+        <v>0.1149984827445998</v>
       </c>
       <c r="E19">
-        <v>0.1818467053693595</v>
+        <v>0.1784284115094295</v>
       </c>
       <c r="F19">
-        <v>2.751039638791383</v>
+        <v>5.798600299041539</v>
       </c>
       <c r="G19">
-        <v>0.0007291962666078912</v>
+        <v>6.001472653849419</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.09730323300901489</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.005381502156640572</v>
       </c>
       <c r="J19">
-        <v>0.3151694092983632</v>
+        <v>3.011937712002918</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7021806382960278</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3838044634060154</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,45 +1367,51 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>7.739454382194197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>4.15093092319924</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.7819724523656362</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1052760505133321</v>
+        <v>0.1154216247321855</v>
       </c>
       <c r="E20">
-        <v>0.188384797088851</v>
+        <v>0.2585675090683495</v>
       </c>
       <c r="F20">
-        <v>2.860628542161209</v>
+        <v>6.976727846110066</v>
       </c>
       <c r="G20">
-        <v>0.0007264775579668425</v>
+        <v>7.128129990041145</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.09532722854566344</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.005252132228487305</v>
       </c>
       <c r="J20">
-        <v>0.3276612379046355</v>
+        <v>3.560433078107678</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7199718592388535</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.6064252934845626</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,45 +1420,51 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>8.054188154448923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>4.282304901225046</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.8791446987358427</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1137623300267592</v>
+        <v>0.1284081784999742</v>
       </c>
       <c r="E21">
-        <v>0.2109004301091773</v>
+        <v>0.2993933990431543</v>
       </c>
       <c r="F21">
-        <v>3.237458537288347</v>
+        <v>7.980648864520191</v>
       </c>
       <c r="G21">
-        <v>0.0007174250776488149</v>
+        <v>8.178765495811319</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.1281884954572057</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004657007411067227</v>
       </c>
       <c r="J21">
-        <v>0.3706536622629528</v>
+        <v>4.061080806312589</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.7773677113325661</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.7086980163247603</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,45 +1473,51 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.136248527455905</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>4.715254362997882</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.947281522238427</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1195033031279422</v>
+        <v>0.1374960420370446</v>
       </c>
       <c r="E22">
-        <v>0.2260790047860581</v>
+        <v>0.3230185933619509</v>
       </c>
       <c r="F22">
-        <v>3.491093662348447</v>
+        <v>8.607766969494463</v>
       </c>
       <c r="G22">
-        <v>0.0007115577295730734</v>
+        <v>8.84131632493785</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.1513498415040289</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003983873804842553</v>
       </c>
       <c r="J22">
-        <v>0.3996219918740707</v>
+        <v>4.376381649275402</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.810451163419394</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7664783002926896</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,45 +1526,51 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9.864460275483566</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>4.983394309352491</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.9158952049805578</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1164201378040701</v>
+        <v>0.1325881221809908</v>
       </c>
       <c r="E23">
-        <v>0.2179317954575026</v>
+        <v>0.3103045373344457</v>
       </c>
       <c r="F23">
-        <v>3.354987425575217</v>
+        <v>8.27133286319841</v>
       </c>
       <c r="G23">
-        <v>0.0007146855933122045</v>
+        <v>8.485822187549616</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.1387295557214738</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.004003525572080058</v>
       </c>
       <c r="J23">
-        <v>0.3840739580264199</v>
+        <v>4.207190886922092</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.787958286494522</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.7354258052211833</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,45 +1579,51 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>9.473692027688571</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>4.824826428540291</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.7879251788611441</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1051403605637873</v>
+        <v>0.115139375327324</v>
       </c>
       <c r="E24">
-        <v>0.188023822761636</v>
+        <v>0.2642432824750287</v>
       </c>
       <c r="F24">
-        <v>2.854580196936581</v>
+        <v>7.032001034096112</v>
       </c>
       <c r="G24">
-        <v>0.0007266265188531204</v>
+        <v>7.177279940208393</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0961767961511395</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.004721862074509531</v>
       </c>
       <c r="J24">
-        <v>0.3269716626694077</v>
+        <v>3.584738521977442</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7117378459152093</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.6221053191916184</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,45 +1632,51 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>8.036818347951623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>4.251808598753911</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.6479434544526441</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09369203427047523</v>
+        <v>0.09806278353485531</v>
       </c>
       <c r="E25">
-        <v>0.1574144629667593</v>
+        <v>0.2178434071125004</v>
       </c>
       <c r="F25">
-        <v>2.340651936903285</v>
+        <v>5.752025465677548</v>
       </c>
       <c r="G25">
-        <v>0.0007397924309138215</v>
+        <v>5.827371327047842</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.05903449291732077</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005746076940562617</v>
       </c>
       <c r="J25">
-        <v>0.2684393150567672</v>
+        <v>2.94330325938239</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6317499572742449</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.5066886573274019</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>6.560516147654027</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>3.638247859403151</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5551486225386952</v>
+        <v>0.7261052125903404</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08644107692685665</v>
+        <v>0.07463712010203416</v>
       </c>
       <c r="E2">
-        <v>0.1855367296028128</v>
+        <v>0.1754721809698125</v>
       </c>
       <c r="F2">
-        <v>4.843741645566041</v>
+        <v>4.829143192437755</v>
       </c>
       <c r="G2">
-        <v>4.870329703439609</v>
+        <v>4.828057903450372</v>
       </c>
       <c r="H2">
-        <v>0.03721719658842293</v>
+        <v>0.03127130209735585</v>
       </c>
       <c r="I2">
-        <v>0.005903807541797867</v>
+        <v>0.003179542007186953</v>
       </c>
       <c r="J2">
-        <v>2.489147209648422</v>
+        <v>2.567841302809029</v>
       </c>
       <c r="K2">
-        <v>0.5634572921613525</v>
+        <v>0.4096165942036549</v>
       </c>
       <c r="L2">
-        <v>0.4256362540948828</v>
+        <v>0.1524762429136146</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1593407899542036</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.4134355882329857</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>3.153887678557368</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>2.671215668056902</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4844269334165858</v>
+        <v>0.6396226992277718</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.07894329022121127</v>
+        <v>0.06890156045584828</v>
       </c>
       <c r="E3">
-        <v>0.1644109682966608</v>
+        <v>0.1559592154395553</v>
       </c>
       <c r="F3">
-        <v>4.243472435771167</v>
+        <v>4.238279835335874</v>
       </c>
       <c r="G3">
-        <v>4.238193391804145</v>
+        <v>4.200550525106053</v>
       </c>
       <c r="H3">
-        <v>0.02507066663697533</v>
+        <v>0.02079136496465894</v>
       </c>
       <c r="I3">
-        <v>0.006536737462899733</v>
+        <v>0.003531692533962794</v>
       </c>
       <c r="J3">
-        <v>2.189547463404892</v>
+        <v>2.271878657713842</v>
       </c>
       <c r="K3">
-        <v>0.5248073823398371</v>
+        <v>0.3830356128572774</v>
       </c>
       <c r="L3">
-        <v>0.3723690448694015</v>
+        <v>0.1378569949286792</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1560397040523078</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3623438807569528</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>2.848846467675344</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>2.40891530794633</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4403425188864674</v>
+        <v>0.5855435650225616</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07446738459984914</v>
+        <v>0.06545805178780029</v>
       </c>
       <c r="E4">
-        <v>0.1517100496775221</v>
+        <v>0.1441918499664467</v>
       </c>
       <c r="F4">
-        <v>3.880747117651396</v>
+        <v>3.880293236380027</v>
       </c>
       <c r="G4">
-        <v>3.85633576890902</v>
+        <v>3.821454762133527</v>
       </c>
       <c r="H4">
-        <v>0.01868697516656304</v>
+        <v>0.0153091779370278</v>
       </c>
       <c r="I4">
-        <v>0.006984047458503895</v>
+        <v>0.003800623455931351</v>
       </c>
       <c r="J4">
-        <v>2.008751657049174</v>
+        <v>2.091714482009195</v>
       </c>
       <c r="K4">
-        <v>0.5017937305816815</v>
+        <v>0.3674513613477757</v>
       </c>
       <c r="L4">
-        <v>0.3402613853406393</v>
+        <v>0.1298101716901066</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1541393598707508</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3314706653452077</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>2.663189306752713</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>2.249867428701691</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4209941194590954</v>
+        <v>0.5620066643803057</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07266784660028591</v>
+        <v>0.06406917040158522</v>
       </c>
       <c r="E5">
-        <v>0.1465879097053957</v>
+        <v>0.1394385035668897</v>
       </c>
       <c r="F5">
-        <v>3.73417828700633</v>
+        <v>3.735433344842846</v>
       </c>
       <c r="G5">
-        <v>3.702060376390108</v>
+        <v>3.668295359516321</v>
       </c>
       <c r="H5">
-        <v>0.01632540085027823</v>
+        <v>0.01328899472305867</v>
       </c>
       <c r="I5">
-        <v>0.007262387320026598</v>
+        <v>0.004014043398791856</v>
       </c>
       <c r="J5">
-        <v>1.93575429421594</v>
+        <v>2.018620358215856</v>
       </c>
       <c r="K5">
-        <v>0.4937246986577861</v>
+        <v>0.3620511004451679</v>
       </c>
       <c r="L5">
-        <v>0.3272983614834999</v>
+        <v>0.1269514605989492</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1537803130244342</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.3189897005439661</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>2.591606816167086</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>2.188456033425126</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4162777628629755</v>
+        <v>0.5565461400954064</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07237030113450782</v>
+        <v>0.06383927237797682</v>
       </c>
       <c r="E6">
-        <v>0.1457402244321635</v>
+        <v>0.1386514237972634</v>
       </c>
       <c r="F6">
-        <v>3.709909657586934</v>
+        <v>3.711436104979953</v>
       </c>
       <c r="G6">
-        <v>3.676516991454235</v>
+        <v>3.642936981961469</v>
       </c>
       <c r="H6">
-        <v>0.01594691657221703</v>
+        <v>0.01296575343832884</v>
       </c>
       <c r="I6">
-        <v>0.007416628218759769</v>
+        <v>0.004170240505565914</v>
       </c>
       <c r="J6">
-        <v>1.923670924583377</v>
+        <v>2.006500853764521</v>
       </c>
       <c r="K6">
-        <v>0.4937867603190682</v>
+        <v>0.3621099119833886</v>
       </c>
       <c r="L6">
-        <v>0.3251523680549369</v>
+        <v>0.1267226092832736</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1541939056750152</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.3169226054438781</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>2.584248125229067</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>2.181851710248765</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.435988206108334</v>
+        <v>0.5810232791935164</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07444302604333952</v>
+        <v>0.06541972705374643</v>
       </c>
       <c r="E7">
-        <v>0.1516407717419241</v>
+        <v>0.1441982538474811</v>
       </c>
       <c r="F7">
-        <v>3.878765680776098</v>
+        <v>3.869715756539392</v>
       </c>
       <c r="G7">
-        <v>3.854250058106373</v>
+        <v>3.824797100287242</v>
       </c>
       <c r="H7">
-        <v>0.01865419304901539</v>
+        <v>0.01524970416911697</v>
       </c>
       <c r="I7">
-        <v>0.007265417066339097</v>
+        <v>0.004114010968864434</v>
       </c>
       <c r="J7">
-        <v>2.007764587756782</v>
+        <v>2.06970546050087</v>
       </c>
       <c r="K7">
-        <v>0.505497223582914</v>
+        <v>0.3699809685399558</v>
       </c>
       <c r="L7">
-        <v>0.3400861079786921</v>
+        <v>0.1304404849251668</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1554026516621008</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.331076532733988</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>2.67456787079081</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>2.258827443959319</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5254446543241045</v>
+        <v>0.6909255388223414</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08382440846033745</v>
+        <v>0.072583870891334</v>
       </c>
       <c r="E8">
-        <v>0.1781873124813487</v>
+        <v>0.1689319843785242</v>
       </c>
       <c r="F8">
-        <v>4.635414111242568</v>
+        <v>4.595283313556848</v>
       </c>
       <c r="G8">
-        <v>4.650912060183828</v>
+        <v>4.628437992885722</v>
       </c>
       <c r="H8">
-        <v>0.03278690322591249</v>
+        <v>0.02731019384905942</v>
       </c>
       <c r="I8">
-        <v>0.006448909612156051</v>
+        <v>0.003671214025835035</v>
       </c>
       <c r="J8">
-        <v>2.385115868694072</v>
+        <v>2.395027776571624</v>
       </c>
       <c r="K8">
-        <v>0.5550966982666949</v>
+        <v>0.4038514883091366</v>
       </c>
       <c r="L8">
-        <v>0.4071268520158213</v>
+        <v>0.1482848651443938</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1597809015874034</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3949300952347841</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>3.064914032997706</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>2.593570145491015</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7028054351517028</v>
+        <v>0.9059964967344456</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1036348287170039</v>
+        <v>0.08759277309620472</v>
       </c>
       <c r="E9">
-        <v>0.2331268687594559</v>
+        <v>0.2194650727601939</v>
       </c>
       <c r="F9">
-        <v>6.176993118630492</v>
+        <v>6.096755555052283</v>
       </c>
       <c r="G9">
-        <v>6.275392449412607</v>
+        <v>6.245615560576141</v>
       </c>
       <c r="H9">
-        <v>0.07056676174253518</v>
+        <v>0.05990526615130953</v>
       </c>
       <c r="I9">
-        <v>0.004899430836709406</v>
+        <v>0.002749535205120779</v>
       </c>
       <c r="J9">
-        <v>3.156094402189353</v>
+        <v>3.124319187022877</v>
       </c>
       <c r="K9">
-        <v>0.6512957820391492</v>
+        <v>0.4714058524226417</v>
       </c>
       <c r="L9">
-        <v>0.544840308149773</v>
+        <v>0.1892043083013171</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1672824385116378</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.526145092357595</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>3.821446641586363</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>3.248317306373877</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8274133909539216</v>
+        <v>1.056783412503933</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1198063960204525</v>
+        <v>0.09971616432955521</v>
       </c>
       <c r="E10">
-        <v>0.2683913807959897</v>
+        <v>0.2515039815685327</v>
       </c>
       <c r="F10">
-        <v>7.272120155025476</v>
+        <v>7.101787640555102</v>
       </c>
       <c r="G10">
-        <v>7.442547316948037</v>
+        <v>7.439033969422269</v>
       </c>
       <c r="H10">
-        <v>0.1051698554765998</v>
+        <v>0.0893742509214599</v>
       </c>
       <c r="I10">
-        <v>0.00422507927281135</v>
+        <v>0.002522011162524151</v>
       </c>
       <c r="J10">
-        <v>3.709682687645795</v>
+        <v>3.509179810824548</v>
       </c>
       <c r="K10">
-        <v>0.7278334434132816</v>
+        <v>0.5263384972155833</v>
       </c>
       <c r="L10">
-        <v>0.6302013755322378</v>
+        <v>0.2243657233541114</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1740479552305771</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6046562368070454</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>4.392771804451201</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>3.745125269751725</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8764230239589494</v>
+        <v>1.117364721571732</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.130038087071874</v>
+        <v>0.1077601349177684</v>
       </c>
       <c r="E11">
-        <v>0.2227492848037613</v>
+        <v>0.2061464491279068</v>
       </c>
       <c r="F11">
-        <v>6.997349043560007</v>
+        <v>6.71748504761544</v>
       </c>
       <c r="G11">
-        <v>7.258699983597126</v>
+        <v>7.328332366489235</v>
       </c>
       <c r="H11">
-        <v>0.1255965978854405</v>
+        <v>0.1086058850847564</v>
       </c>
       <c r="I11">
-        <v>0.004438238944215911</v>
+        <v>0.003002328864891268</v>
       </c>
       <c r="J11">
-        <v>3.611155477198508</v>
+        <v>3.146932914721958</v>
       </c>
       <c r="K11">
-        <v>0.770167734960765</v>
+        <v>0.5570146288295277</v>
       </c>
       <c r="L11">
-        <v>0.4954653383840935</v>
+        <v>0.2431910490156639</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1790508168471092</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4685714346403671</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>4.676079097228524</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>3.990823712439692</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8984763595842651</v>
+        <v>1.143771739569218</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1372015883281961</v>
+        <v>0.1135339519395018</v>
       </c>
       <c r="E12">
-        <v>0.1868420982965553</v>
+        <v>0.1705945345755886</v>
       </c>
       <c r="F12">
-        <v>6.537297347214064</v>
+        <v>6.221649245195039</v>
       </c>
       <c r="G12">
-        <v>6.8566839889981</v>
+        <v>6.960394185233952</v>
       </c>
       <c r="H12">
-        <v>0.1597284507903183</v>
+        <v>0.1430411190792569</v>
       </c>
       <c r="I12">
-        <v>0.004298829379830948</v>
+        <v>0.002926219342411329</v>
       </c>
       <c r="J12">
-        <v>3.410452785082896</v>
+        <v>2.847784063743177</v>
       </c>
       <c r="K12">
-        <v>0.7828461607044801</v>
+        <v>0.5662507166476871</v>
       </c>
       <c r="L12">
-        <v>0.3859388602191842</v>
+        <v>0.2495488536326107</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1800146900426256</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3605061285098259</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>4.772479656867574</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>4.075149850847708</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8944612085595338</v>
+        <v>1.138823380213324</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1421674211876294</v>
+        <v>0.1184221950329984</v>
       </c>
       <c r="E13">
-        <v>0.1567307473865682</v>
+        <v>0.1411010603147336</v>
       </c>
       <c r="F13">
-        <v>5.915059492535448</v>
+        <v>5.634109585578585</v>
       </c>
       <c r="G13">
-        <v>6.269686224682289</v>
+        <v>6.366703897505715</v>
       </c>
       <c r="H13">
-        <v>0.2059451229347218</v>
+        <v>0.1908027287341696</v>
       </c>
       <c r="I13">
-        <v>0.004278899009388937</v>
+        <v>0.002884585139963036</v>
       </c>
       <c r="J13">
-        <v>3.122421448632167</v>
+        <v>2.617818176560831</v>
       </c>
       <c r="K13">
-        <v>0.7794029683508654</v>
+        <v>0.5637442566582536</v>
       </c>
       <c r="L13">
-        <v>0.2909757528956263</v>
+        <v>0.2479816636650014</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1796159839196108</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2690855237842058</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>4.749436361342759</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>4.05513313811349</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8785493236400441</v>
+        <v>1.119851314132177</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1448804816261742</v>
+        <v>0.1219801995549972</v>
       </c>
       <c r="E14">
-        <v>0.1399661460338182</v>
+        <v>0.1250296478557154</v>
       </c>
       <c r="F14">
-        <v>5.414641407756392</v>
+        <v>5.184687011611771</v>
       </c>
       <c r="G14">
-        <v>5.783026857777088</v>
+        <v>5.858904479540456</v>
       </c>
       <c r="H14">
-        <v>0.2469090780179783</v>
+        <v>0.23328332937281</v>
       </c>
       <c r="I14">
-        <v>0.004405233575648815</v>
+        <v>0.002971059118840991</v>
       </c>
       <c r="J14">
-        <v>2.885050994506457</v>
+        <v>2.481957303063439</v>
       </c>
       <c r="K14">
-        <v>0.7709080011075216</v>
+        <v>0.5575548820124183</v>
       </c>
       <c r="L14">
-        <v>0.2351469681279355</v>
+        <v>0.2436304333209947</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1790485541235753</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2162624480235884</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>4.683040835970473</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>3.996973316757874</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8673533903836415</v>
+        <v>1.106768504028423</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1447980193701497</v>
+        <v>0.1225295980353991</v>
       </c>
       <c r="E15">
-        <v>0.1358775348482943</v>
+        <v>0.1212671244398749</v>
       </c>
       <c r="F15">
-        <v>5.259432296825253</v>
+        <v>5.053294135820096</v>
       </c>
       <c r="G15">
-        <v>5.62668170221383</v>
+        <v>5.690651292603548</v>
       </c>
       <c r="H15">
-        <v>0.2561985779495615</v>
+        <v>0.2431781093898735</v>
       </c>
       <c r="I15">
-        <v>0.004585676017240026</v>
+        <v>0.003143638877399546</v>
       </c>
       <c r="J15">
-        <v>2.80945751122357</v>
+        <v>2.457030948588113</v>
       </c>
       <c r="K15">
-        <v>0.7671135838124812</v>
+        <v>0.5547859089091105</v>
       </c>
       <c r="L15">
-        <v>0.2220030986893313</v>
+        <v>0.241356202358638</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1790817860187985</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2041281211314718</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>4.646875737567882</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>3.965012659181838</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8121092984665665</v>
+        <v>1.040649227357932</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1362668005418328</v>
+        <v>0.1174760657668159</v>
       </c>
       <c r="E16">
-        <v>0.1285121349817366</v>
+        <v>0.1152811990032077</v>
       </c>
       <c r="F16">
-        <v>4.938902107218382</v>
+        <v>4.830498332935633</v>
       </c>
       <c r="G16">
-        <v>5.265494956917678</v>
+        <v>5.273741418961606</v>
       </c>
       <c r="H16">
-        <v>0.2311499438998652</v>
+        <v>0.220399829357774</v>
       </c>
       <c r="I16">
-        <v>0.005015896760768079</v>
+        <v>0.003422648797403838</v>
       </c>
       <c r="J16">
-        <v>2.640085129294675</v>
+        <v>2.509450517276548</v>
       </c>
       <c r="K16">
-        <v>0.7367419866929126</v>
+        <v>0.532741869693595</v>
       </c>
       <c r="L16">
-        <v>0.2101900940075936</v>
+        <v>0.2262062242632723</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1769300220484737</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.195164957597342</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>4.411745866443709</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>3.75943321478735</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7780555216011749</v>
+        <v>0.9998368602336143</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1282321199396961</v>
+        <v>0.1110362990249456</v>
       </c>
       <c r="E17">
-        <v>0.1305791600313251</v>
+        <v>0.1178383465733441</v>
       </c>
       <c r="F17">
-        <v>4.953725113008488</v>
+        <v>4.884496435202749</v>
       </c>
       <c r="G17">
-        <v>5.242613929639163</v>
+        <v>5.226223996099463</v>
       </c>
       <c r="H17">
-        <v>0.1882505745769834</v>
+        <v>0.1783864731421829</v>
       </c>
       <c r="I17">
-        <v>0.005306317657361781</v>
+        <v>0.003619014218526395</v>
       </c>
       <c r="J17">
-        <v>2.634248145124673</v>
+        <v>2.597929923087634</v>
       </c>
       <c r="K17">
-        <v>0.7182930209565868</v>
+        <v>0.5194061732214195</v>
       </c>
       <c r="L17">
-        <v>0.2277775931598498</v>
+        <v>0.2171449077486827</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1756483311109847</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2134883980240616</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>4.267897868637277</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>3.633805871427484</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7620504551377394</v>
+        <v>0.9799431663905978</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1205286793321605</v>
+        <v>0.1037832023078522</v>
       </c>
       <c r="E18">
-        <v>0.1458538520896688</v>
+        <v>0.132868555881668</v>
       </c>
       <c r="F18">
-        <v>5.261972669882198</v>
+        <v>5.205165074372843</v>
       </c>
       <c r="G18">
-        <v>5.509311965064398</v>
+        <v>5.47987872471856</v>
       </c>
       <c r="H18">
-        <v>0.1360929348674134</v>
+        <v>0.1261941642468756</v>
       </c>
       <c r="I18">
-        <v>0.005201912227929206</v>
+        <v>0.003414306215079321</v>
       </c>
       <c r="J18">
-        <v>2.768793819135283</v>
+        <v>2.77078916106575</v>
       </c>
       <c r="K18">
-        <v>0.704210383409027</v>
+        <v>0.5092679598537728</v>
       </c>
       <c r="L18">
-        <v>0.2835965440823216</v>
+        <v>0.2111189711718637</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1739336174038151</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2686409892463359</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>4.173968501421939</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>3.552566743167489</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7538120580642556</v>
+        <v>0.9703595947252666</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1149984827445998</v>
+        <v>0.09793865729073659</v>
       </c>
       <c r="E19">
-        <v>0.1784284115094295</v>
+        <v>0.1645866187219411</v>
       </c>
       <c r="F19">
-        <v>5.798600299041539</v>
+        <v>5.738121336269529</v>
       </c>
       <c r="G19">
-        <v>6.001472653849419</v>
+        <v>5.964370226962387</v>
       </c>
       <c r="H19">
-        <v>0.09730323300901489</v>
+        <v>0.08656396380711584</v>
       </c>
       <c r="I19">
-        <v>0.005381502156640572</v>
+        <v>0.003594476720348183</v>
       </c>
       <c r="J19">
-        <v>3.011937712002918</v>
+        <v>3.020722773926934</v>
       </c>
       <c r="K19">
-        <v>0.7021806382960278</v>
+        <v>0.5078025191338682</v>
       </c>
       <c r="L19">
-        <v>0.3838044634060154</v>
+        <v>0.2097881680638167</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1741186162573989</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3669924537824727</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>4.15093092319924</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>3.532155292285353</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7819724523656362</v>
+        <v>1.004478775272588</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1154216247321855</v>
+        <v>0.09648794731212895</v>
       </c>
       <c r="E20">
-        <v>0.2585675090683495</v>
+        <v>0.2423252993115206</v>
       </c>
       <c r="F20">
-        <v>6.976727846110066</v>
+        <v>6.863489392432882</v>
       </c>
       <c r="G20">
-        <v>7.128129990041145</v>
+        <v>7.097783976640642</v>
       </c>
       <c r="H20">
-        <v>0.09532722854566344</v>
+        <v>0.08122924035700851</v>
       </c>
       <c r="I20">
-        <v>0.005252132228487305</v>
+        <v>0.003571218719509162</v>
       </c>
       <c r="J20">
-        <v>3.560433078107678</v>
+        <v>3.482928941425996</v>
       </c>
       <c r="K20">
-        <v>0.7199718592388535</v>
+        <v>0.5206188965283047</v>
       </c>
       <c r="L20">
-        <v>0.6064252934845626</v>
+        <v>0.2180290810508012</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1757059250054382</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5836872346266944</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>4.282304901225046</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>3.646440191411045</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8791446987358427</v>
+        <v>1.121331427858024</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1284081784999742</v>
+        <v>0.1061131652475602</v>
       </c>
       <c r="E21">
-        <v>0.2993933990431543</v>
+        <v>0.2816161315835863</v>
       </c>
       <c r="F21">
-        <v>7.980648864520191</v>
+        <v>7.615931049915673</v>
       </c>
       <c r="G21">
-        <v>8.178765495811319</v>
+        <v>8.274845316680455</v>
       </c>
       <c r="H21">
-        <v>0.1281884954572057</v>
+        <v>0.1078449800657246</v>
       </c>
       <c r="I21">
-        <v>0.004657007411067227</v>
+        <v>0.003282633636472632</v>
       </c>
       <c r="J21">
-        <v>4.061080806312589</v>
+        <v>3.440308313296043</v>
       </c>
       <c r="K21">
-        <v>0.7773677113325661</v>
+        <v>0.5622399905628797</v>
       </c>
       <c r="L21">
-        <v>0.7086980163247603</v>
+        <v>0.2459756668717574</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1802842895537253</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6745260017953569</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>4.715254362997882</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>4.024364298758542</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.947281522238427</v>
+        <v>1.202066445071381</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1374960420370446</v>
+        <v>0.1131793387111717</v>
       </c>
       <c r="E22">
-        <v>0.3230185933619509</v>
+        <v>0.3043523580593721</v>
       </c>
       <c r="F22">
-        <v>8.607766969494463</v>
+        <v>8.058431559841864</v>
       </c>
       <c r="G22">
-        <v>8.84131632493785</v>
+        <v>9.031590395245416</v>
       </c>
       <c r="H22">
-        <v>0.1513498415040289</v>
+        <v>0.1263556614526742</v>
       </c>
       <c r="I22">
-        <v>0.003983873804842553</v>
+        <v>0.002742905351778901</v>
       </c>
       <c r="J22">
-        <v>4.376381649275402</v>
+        <v>3.370134788781002</v>
       </c>
       <c r="K22">
-        <v>0.810451163419394</v>
+        <v>0.5864196251045257</v>
       </c>
       <c r="L22">
-        <v>0.7664783002926896</v>
+        <v>0.2636436538101705</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.182046235963945</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7240910540702998</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>4.983394309352491</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>4.259884813161761</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9158952049805578</v>
+        <v>1.163996300389471</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1325881221809908</v>
+        <v>0.1092882301038838</v>
       </c>
       <c r="E23">
-        <v>0.3103045373344457</v>
+        <v>0.2918994228346286</v>
       </c>
       <c r="F23">
-        <v>8.27133286319841</v>
+        <v>7.845613814060215</v>
       </c>
       <c r="G23">
-        <v>8.485822187549616</v>
+        <v>8.610155551757714</v>
       </c>
       <c r="H23">
-        <v>0.1387295557214738</v>
+        <v>0.116463186965845</v>
       </c>
       <c r="I23">
-        <v>0.004003525572080058</v>
+        <v>0.002637213644030467</v>
       </c>
       <c r="J23">
-        <v>4.207190886922092</v>
+        <v>3.461191259103543</v>
       </c>
       <c r="K23">
-        <v>0.787958286494522</v>
+        <v>0.5699955822841147</v>
       </c>
       <c r="L23">
-        <v>0.7354258052211833</v>
+        <v>0.2528433705207789</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1798131773193674</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.698165856208135</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>4.824826428540291</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>4.121589423601591</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7879251788611441</v>
+        <v>1.010159765287852</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.115139375327324</v>
+        <v>0.09620328979833559</v>
       </c>
       <c r="E24">
-        <v>0.2642432824750287</v>
+        <v>0.2478960578038993</v>
       </c>
       <c r="F24">
-        <v>7.032001034096112</v>
+        <v>6.919522170454599</v>
       </c>
       <c r="G24">
-        <v>7.177279940208393</v>
+        <v>7.145278426721575</v>
       </c>
       <c r="H24">
-        <v>0.0961767961511395</v>
+        <v>0.08197402753154037</v>
       </c>
       <c r="I24">
-        <v>0.004721862074509531</v>
+        <v>0.002949021180468137</v>
       </c>
       <c r="J24">
-        <v>3.584738521977442</v>
+        <v>3.510902888727628</v>
       </c>
       <c r="K24">
-        <v>0.7117378459152093</v>
+        <v>0.5147038972880011</v>
       </c>
       <c r="L24">
-        <v>0.6221053191916184</v>
+        <v>0.2157073618184313</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1736002496317255</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5991486494798721</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>4.251808598753911</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>3.621333730405183</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6479434544526441</v>
+        <v>0.8411086027822705</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09806278353485531</v>
+        <v>0.0834138709742227</v>
       </c>
       <c r="E25">
-        <v>0.2178434071125004</v>
+        <v>0.2053543275609861</v>
       </c>
       <c r="F25">
-        <v>5.752025465677548</v>
+        <v>5.69675109072503</v>
       </c>
       <c r="G25">
-        <v>5.827371327047842</v>
+        <v>5.791916771299668</v>
       </c>
       <c r="H25">
-        <v>0.05903449291732077</v>
+        <v>0.05002152268214566</v>
       </c>
       <c r="I25">
-        <v>0.005746076940562617</v>
+        <v>0.003501266619457155</v>
       </c>
       <c r="J25">
-        <v>2.94330325938239</v>
+        <v>2.955429519917118</v>
       </c>
       <c r="K25">
-        <v>0.6317499572742449</v>
+        <v>0.4575221199960211</v>
       </c>
       <c r="L25">
-        <v>0.5066886573274019</v>
+        <v>0.1790127887569533</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.167223660354761</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4902482641004582</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>3.638247859403151</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>3.087883014189771</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
